--- a/premise/data/additional_inventories/lci-battery-capacity.xlsx
+++ b/premise/data/additional_inventories/lci-battery-capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9430B552-DEF7-1D4F-9BAE-C65E3E5754A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B520934-8E1C-0E4E-A8BA-7666CB32551E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Battery - NMC" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Battery - NMC'!$A$1:$H$170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Battery - NMC'!$A$1:$N$266</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -709,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B172" sqref="B172:B244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4820,7 +4820,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H170" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:N266" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-battery-capacity.xlsx
+++ b/premise/data/additional_inventories/lci-battery-capacity.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahnme_a\PycharmProjects\premise\premise\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B520934-8E1C-0E4E-A8BA-7666CB32551E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE1F666-85A0-49BE-B63E-4B717A270656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Battery - NMC" sheetId="1" r:id="rId1"/>
+    <sheet name="Battery - stationary" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Battery - NMC'!$A$1:$N$266</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="124">
   <si>
     <t>Activity</t>
   </si>
@@ -88,250 +86,328 @@
     <t>kilowatt hour</t>
   </si>
   <si>
+    <t>market for battery capacity, Li-ion, LFP</t>
+  </si>
+  <si>
+    <t>battery capacity, Li-ion, LFP</t>
+  </si>
+  <si>
+    <t>market for battery, Li-ion, LFP, rechargeable, prismatic</t>
+  </si>
+  <si>
+    <t>battery, Li-ion, LFP, rechargeable, prismatic</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Li-ion, NMC111</t>
+  </si>
+  <si>
+    <t>market for battery, Li-ion, NMC111, rechargeable, prismatic</t>
+  </si>
+  <si>
+    <t>battery, Li-ion, NMC111, rechargeable, prismatic</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Li-ion, NMC622</t>
+  </si>
+  <si>
+    <t>battery capacity, Li-ion, NMC111</t>
+  </si>
+  <si>
+    <t>battery capacity, Li-ion, NMC622</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Li-ion, NMC811</t>
+  </si>
+  <si>
+    <t>battery capacity, Li-ion, NMC811</t>
+  </si>
+  <si>
+    <t>market for battery, Li-ion, NMC811, rechargeable, prismatic</t>
+  </si>
+  <si>
+    <t>market for battery, Li-ion, NMC622</t>
+  </si>
+  <si>
+    <t>battery, Li-ion, NMC622</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Li-ion, NCA</t>
+  </si>
+  <si>
+    <t>battery capacity, Li-ion, NCA</t>
+  </si>
+  <si>
+    <t>market for battery, Li-ion, NCA, rechargeable, prismatic</t>
+  </si>
+  <si>
+    <t>battery, Li-ion, NCA, rechargeable, prismatic</t>
+  </si>
+  <si>
+    <t>battery capacity</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Li-ion, LTO</t>
+  </si>
+  <si>
+    <t>battery capacity, Li-ion, LTO</t>
+  </si>
+  <si>
+    <t>market for battery, Li-ion, LTO</t>
+  </si>
+  <si>
+    <t>battery, Li-ion, LTO</t>
+  </si>
+  <si>
+    <t>market for battery, Li-sulfur, Li-S</t>
+  </si>
+  <si>
+    <t>battery, Li-S</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Li-ion, Li-O2</t>
+  </si>
+  <si>
+    <t>battery capacity, Li-ion, Li-O2</t>
+  </si>
+  <si>
+    <t>market for battery, Li-oxygen, Li-O2</t>
+  </si>
+  <si>
+    <t>battery, Li-O2</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Sodium-ion, SiB</t>
+  </si>
+  <si>
+    <t>market for battery, Sodium-ion, SiB</t>
+  </si>
+  <si>
+    <t>battery, SiB</t>
+  </si>
+  <si>
+    <t>battery capacity, Sodium-ion, SiB</t>
+  </si>
+  <si>
+    <t>market for battery, NaCl</t>
+  </si>
+  <si>
+    <t>battery, NaCl</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion LTO battery. Specific energy density in 2020: 0.085 kWh/kg cell. Battery management (BoP) mass share: 36%. Battery energy density in 2020: 0.053 kWh/kg battery. Battery mass per kWh: 18.4 kg. Lifetime: 10'000 cycles. Source for parameters: Life cycle assessment of battery electric buses. Transportation Research Part D: Transport and Environment. Linda Ager-Wick Ellingsen, Rebecca Jayne Thorne, Julia Wind, Erik Figenbaum, Mia Romare and Anders Nordelöf.</t>
+  </si>
+  <si>
+    <t>Inventories from ecoinvent 3.10</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Sodium-Nickel-Chloride battery. Battery energy density in 2020: 0.116 kWh/kg battery. Battery mass per kWh: 8.62 kg. Lifetime: 1'000-2'500. Source for parameters: Dustmann C.-H. (2004) Advances in ZEBRA batteries. Journal of Power Sources 127, 85-93. and Turconi, A. (2007) Developments and Improvements in Zebra Nickel Sodium Chloride Batteries. EVS-23, Dec. 2-5, Anaheim, DE.</t>
+  </si>
+  <si>
+    <t>battery, Li-ion, NMC811, rechargeable, prismatic</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Sodium-Nickel-Chloride, Na-NiCl</t>
+  </si>
+  <si>
+    <t>battery cell mass share</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Lithium-oxygen Li-O2 battery. Specific energy density in 2020: 0.360 kWh/kg cell. Battery management (BoP) mass share: 45%. Battery energy density in 2020: 0.238 kWh/kg battery (excl. O2 tanks). System energy density in 2020: 0.198 kWh/kg battery (incl. O2 tanks). Battery mass per kWh: 5.05 kg. Battery lifetime: 305 kWh/kg (1.76 MJ/km x 2e5 km / 321 kg). Source for parameters: Originally from Wang, F., Deng, Y., &amp; Yuan, C. (2020). Life cycle assessment of lithium oxygen battery for electric vehicles. Journal of Cleaner Production, 264, 121339. https://doi.org/10.1016/j.jclepro.2020.121339</t>
+  </si>
+  <si>
+    <t>market for battery, Li-ion, LiMn2O4, rechargeable, prismatic</t>
+  </si>
+  <si>
+    <t>battery, Li-ion, LiMn2O4, rechargeable, prismatic</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion LMO battery. Specific energy density in 2020: 0.13 kWh/kg cell. Battery management (BoP) mass share: 13%. Battery energy density in 2020: 0.114 kWh/kg battery. Battery mass per kWh: 18.4 kg. Lifetime: 10'000 cycles. Source for parameters: Life cycle assessment of battery electric buses. Transportation Research Part D: Transport and Environment. Linda Ager-Wick Ellingsen, Rebecca Jayne Thorne, Julia Wind, Erik Figenbaum, Mia Romare and Anders Nordelöf.</t>
+  </si>
+  <si>
+    <t>battery capacity, Na-NiCl</t>
+  </si>
+  <si>
+    <t>market for used Li-ion battery</t>
+  </si>
+  <si>
+    <t>used Li-ion battery</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Li-ion, LiMn2O4</t>
+  </si>
+  <si>
+    <t>battery capacity, Li-ion, LiMn2O4</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Li-sulfur, Li-S</t>
+  </si>
+  <si>
+    <t>battery capacity, Li-sulfur, Li-S</t>
+  </si>
+  <si>
+    <t>uncertainty type</t>
+  </si>
+  <si>
+    <t>loc</t>
+  </si>
+  <si>
+    <t>minimum</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Li-ion, NMC523</t>
+  </si>
+  <si>
+    <t>battery capacity, Li-ion, NMC523</t>
+  </si>
+  <si>
+    <t>market for battery, Li-ion, NMC523</t>
+  </si>
+  <si>
+    <t>battery, Li-ion, NMC523</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Li-ion, NMC955</t>
+  </si>
+  <si>
+    <t>battery capacity, Li-ion, NMC955</t>
+  </si>
+  <si>
+    <t>market for battery, Li-ion, NMC955</t>
+  </si>
+  <si>
+    <t>battery, Li-ion, NMC955</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion LFP battery. Specific energy density in 2020: (min, mean, max) 0.140, 0.160, 0.190 kWh/kg cell. Battery management (BoP) mass share: 27%. Battery energy density in 2020: 0.10 kWh/kg battery. Battery mass per kWh: 8.6 kg. Lifetime: 3'000-3'500 cycles. Source for parameters: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion NMC111 battery. Specific cell energy density in 2020: (min, mean, max) 0.150, 0.180, 0.190 kWh/kg cell. Battery management (BoP) mass share: 27%. Battery energy density in 2020: 0.13 kWh/kg battery. Battery mass per kWh: 7.6 kg. Lifetime: 1'000-1'800 cycles. Source for parameters: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion NMC523 battery. Specific energy density in 2020: (min, mean, max) 0.170, 0.200, 0.220 kWh/kg cell. Battery management (BoP) mass share: 27%. Battery energy density in 2020: 0.150 kWh/kg battery. Battery mass per kWh: 6.95 kg. Lifetime: 1'000-1'500 cycles. Source for parameters: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion NMC622 battery. Specific energy density in 2020: (min, mean, max) 0.200, 0.240, 0.280 kWh/kg cell. Battery management (BoP) mass share: 27%. Battery energy density in 2020: 0.180 kWh/kg battery. Battery mass per kWh: 6.85 kg. Lifetime: 1'000-1'500 cycles. Source for parameters: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (not NET), using a Li-ion NMC811 battery. Specific energy density in 2020: (min, mean, max) 0.240, 0.280, 0.340 kWh/kg cell. Battery management (BoP) mass share: 29%. Battery energy density in 2020: 0.20 kWh/kg battery. Battery mass per kWh: 5.03 kg. Lifetime: 1'000-1'200 cycles. Source for parameters: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (not NET), using a Li-ion NCA battery. Specific energy density in 2020: (min, mean, max) 0.240, 0.280, 0.340 kWh/kg cell. Battery management (BoP) mass share: 29%. Battery energy density in 2020: 0.20 kWh/kg battery. Battery mass per kWh: 5.03 kg. Lifetime: 800-1'600 cycles. Source for parameters: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Sodium-ion battery. Specific energy density in 2020: 0.157 kWh/kg cell. Battery management (BoP) mass share: 25%. Battery energy density in 2020: 0.12 kWh/kg battery. Battery mass per kWh: 8.5 kg. Lifetime: 628 kWh/kg cell (4000 cycles x 0.157 kWh) or 2'500-4'000 cycles. Source for parameters: Zhang, S., Steubing, B., Potter, H. K., Hansson, P. A., &amp; Nordberg, Å. (2024). Future climate impacts of sodium-ion batteries. Resources, Conservation and Recycling, 202, 107362. https://doi.org/10.1016/j.resconrec.2023.107362. Min and max values from: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion Li-S battery. Specific energy density in 2020: 0.15 kWh/kg cell, 0.5 kWh/kg cell in the future. Battery management (BoP) mass share: 25%. Battery energy density in 2020: 0.11 kWh/kg battery. Battery mass per kWh: 8.9 kg. Cycle life: 800-1'500 or Lifetime: 225 kWh/kg. Source: Wickerts et al. (2023). Prospective Life Cycle Assessment of Lithium-Sulfur Batteries for Stationary Energy Storage. ACS Sustainable Chemistry &amp; Engineering. https://doi.org/10.1021/acssuschemeng.3c00141</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (not NET), using a Li-ion NMC955 battery. Specific energy density in 2020: (min, mean, max) 0.300, 0.340, 0.380 kWh/kg cell. Battery management (BoP) mass share: 29%. Battery energy density in 2030: 0.240 kWh/kg battery. Battery mass per kWh: 5.03 kg. Lifetime: 1'000-1'500 cycles. Source for parameters: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
+  </si>
+  <si>
+    <t>This dataset provides a market average for 1 kWh of battery gross capacity (NOT net). It is based on shares provided by Degen, F., Winter, M., Bendig, D. et al. Energy consumption of current and future production of lithium-ion and post lithium-ion battery cells. Nat Energy 8, 1284–1295 (2023). https://doi.org/10.1038/s41560-023-01355-z. The default scenario is "MIX scenario", which sees an increasing market share for novel post-lithium chemistries.</t>
+  </si>
+  <si>
+    <t>Market shares from Degen, F., Winter, M., Bendig, D. et al. Energy consumption of current and future production of lithium-ion and post lithium-ion battery cells. Nat Energy 8, 1284–1295 (2023). https://doi.org/10.1038/s41560-023-01355-z</t>
+  </si>
+  <si>
+    <t>market for battery capacity (MIX scenario)</t>
+  </si>
+  <si>
+    <t>market for battery capacity (LFP scenario)</t>
+  </si>
+  <si>
+    <t>market for battery capacity (NCx scenario)</t>
+  </si>
+  <si>
+    <t>market for battery capacity (PLiB scenario)</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Li-ion, LFP, stationary</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Li-ion, NMC111, stationary</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Li-ion, NMC523, stationary</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Li-ion, NMC622, stationary</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Li-ion, NMC811, stationary</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Li-ion, NMC955, stationary</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Sodium-ion, SiB, stationary</t>
+  </si>
+  <si>
+    <t>market for battery, redox-flow, Vanadium</t>
+  </si>
+  <si>
+    <t>market for used redox-flow battery</t>
+  </si>
+  <si>
+    <t>used redox-flow battery</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a vanadium redox-flow battery. EFFECTIVE energy density in 2020: 0.0194 kWh/kg cell. Battery management (BoP) mass share: 21%. Source for parameters: https://doi.org/10.1021/acs.est.8b02073. Min and max values from: https://doi.org/10.1039/C7CP07456E</t>
+  </si>
+  <si>
+    <t>market for battery capacity, lead acid, rechargeable, stationary</t>
+  </si>
+  <si>
+    <t>battery capacity, lead acid</t>
+  </si>
+  <si>
+    <t>market for battery, lead acid, rechargeable, stationary</t>
+  </si>
+  <si>
+    <t>battery, lead acid, rechargeable, stationary</t>
+  </si>
+  <si>
+    <t>market for scrap lead acid battery</t>
+  </si>
+  <si>
+    <t>scrap lead acid battery</t>
+  </si>
+  <si>
+    <t>Activities from ecoinvent. Current energy values from: http://dx.doi.org/10.1016/j.rser.2014.10.072. Future energy density values from: https://doi.org/10.1007/s41918-022-00134-w</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Sodium-Nickel-Chloride, Na-NiCl, stationary</t>
+  </si>
+  <si>
+    <t>market for battery capacity, stationary (CONT scenario)</t>
+  </si>
+  <si>
+    <t>market for battery capacity, stationary (TC scenario)</t>
+  </si>
+  <si>
+    <t>battery, redox-flow, Vanadium</t>
+  </si>
+  <si>
     <t>database</t>
   </si>
   <si>
-    <t>market for battery capacity, Li-ion, LFP</t>
-  </si>
-  <si>
-    <t>battery capacity, Li-ion, LFP</t>
-  </si>
-  <si>
-    <t>market for battery, Li-ion, LFP, rechargeable, prismatic</t>
-  </si>
-  <si>
-    <t>battery, Li-ion, LFP, rechargeable, prismatic</t>
-  </si>
-  <si>
-    <t>market for battery capacity, Li-ion, NMC111</t>
-  </si>
-  <si>
-    <t>market for battery, Li-ion, NMC111, rechargeable, prismatic</t>
-  </si>
-  <si>
-    <t>battery, Li-ion, NMC111, rechargeable, prismatic</t>
-  </si>
-  <si>
-    <t>market for battery capacity, Li-ion, NMC622</t>
-  </si>
-  <si>
-    <t>battery capacity, Li-ion, NMC111</t>
-  </si>
-  <si>
-    <t>battery capacity, Li-ion, NMC622</t>
-  </si>
-  <si>
-    <t>market for battery capacity, Li-ion, NMC811</t>
-  </si>
-  <si>
-    <t>battery capacity, Li-ion, NMC811</t>
-  </si>
-  <si>
-    <t>market for battery, Li-ion, NMC811, rechargeable, prismatic</t>
-  </si>
-  <si>
-    <t>market for battery, Li-ion, NMC622</t>
-  </si>
-  <si>
-    <t>battery, Li-ion, NMC622</t>
-  </si>
-  <si>
-    <t>market for battery capacity, Li-ion, NCA</t>
-  </si>
-  <si>
-    <t>battery capacity, Li-ion, NCA</t>
-  </si>
-  <si>
-    <t>market for battery, Li-ion, NCA, rechargeable, prismatic</t>
-  </si>
-  <si>
-    <t>battery, Li-ion, NCA, rechargeable, prismatic</t>
-  </si>
-  <si>
-    <t>battery capacity</t>
-  </si>
-  <si>
-    <t>market for battery capacity, Li-ion, LTO</t>
-  </si>
-  <si>
-    <t>battery capacity, Li-ion, LTO</t>
-  </si>
-  <si>
-    <t>market for battery, Li-ion, LTO</t>
-  </si>
-  <si>
-    <t>battery, Li-ion, LTO</t>
-  </si>
-  <si>
-    <t>market for battery, Li-sulfur, Li-S</t>
-  </si>
-  <si>
-    <t>battery, Li-S</t>
-  </si>
-  <si>
-    <t>market for battery capacity, Li-ion, Li-O2</t>
-  </si>
-  <si>
-    <t>battery capacity, Li-ion, Li-O2</t>
-  </si>
-  <si>
-    <t>market for battery, Li-oxygen, Li-O2</t>
-  </si>
-  <si>
-    <t>battery, Li-O2</t>
-  </si>
-  <si>
-    <t>market for battery capacity, Sodium-ion, SiB</t>
-  </si>
-  <si>
-    <t>market for battery, Sodium-ion, SiB</t>
-  </si>
-  <si>
-    <t>battery, SiB</t>
-  </si>
-  <si>
-    <t>battery capacity, Sodium-ion, SiB</t>
-  </si>
-  <si>
-    <t>market for battery, NaCl</t>
-  </si>
-  <si>
-    <t>battery, NaCl</t>
-  </si>
-  <si>
-    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion LTO battery. Specific energy density in 2020: 0.085 kWh/kg cell. Battery management (BoP) mass share: 36%. Battery energy density in 2020: 0.053 kWh/kg battery. Battery mass per kWh: 18.4 kg. Lifetime: 10'000 cycles. Source for parameters: Life cycle assessment of battery electric buses. Transportation Research Part D: Transport and Environment. Linda Ager-Wick Ellingsen, Rebecca Jayne Thorne, Julia Wind, Erik Figenbaum, Mia Romare and Anders Nordelöf.</t>
-  </si>
-  <si>
-    <t>Inventories from ecoinvent 3.10</t>
-  </si>
-  <si>
-    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Sodium-Nickel-Chloride battery. Battery energy density in 2020: 0.116 kWh/kg battery. Battery mass per kWh: 8.62 kg. Lifetime: 1'000-2'500. Source for parameters: Dustmann C.-H. (2004) Advances in ZEBRA batteries. Journal of Power Sources 127, 85-93. and Turconi, A. (2007) Developments and Improvements in Zebra Nickel Sodium Chloride Batteries. EVS-23, Dec. 2-5, Anaheim, DE.</t>
-  </si>
-  <si>
-    <t>battery, Li-ion, NMC811, rechargeable, prismatic</t>
-  </si>
-  <si>
-    <t>market for battery capacity, Sodium-Nickel-Chloride, Na-NiCl</t>
-  </si>
-  <si>
-    <t>battery cell mass share</t>
-  </si>
-  <si>
-    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Lithium-oxygen Li-O2 battery. Specific energy density in 2020: 0.360 kWh/kg cell. Battery management (BoP) mass share: 45%. Battery energy density in 2020: 0.238 kWh/kg battery (excl. O2 tanks). System energy density in 2020: 0.198 kWh/kg battery (incl. O2 tanks). Battery mass per kWh: 5.05 kg. Battery lifetime: 305 kWh/kg (1.76 MJ/km x 2e5 km / 321 kg). Source for parameters: Originally from Wang, F., Deng, Y., &amp; Yuan, C. (2020). Life cycle assessment of lithium oxygen battery for electric vehicles. Journal of Cleaner Production, 264, 121339. https://doi.org/10.1016/j.jclepro.2020.121339</t>
-  </si>
-  <si>
-    <t>market for battery, Li-ion, LiMn2O4, rechargeable, prismatic</t>
-  </si>
-  <si>
-    <t>battery, Li-ion, LiMn2O4, rechargeable, prismatic</t>
-  </si>
-  <si>
-    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion LMO battery. Specific energy density in 2020: 0.13 kWh/kg cell. Battery management (BoP) mass share: 13%. Battery energy density in 2020: 0.114 kWh/kg battery. Battery mass per kWh: 18.4 kg. Lifetime: 10'000 cycles. Source for parameters: Life cycle assessment of battery electric buses. Transportation Research Part D: Transport and Environment. Linda Ager-Wick Ellingsen, Rebecca Jayne Thorne, Julia Wind, Erik Figenbaum, Mia Romare and Anders Nordelöf.</t>
-  </si>
-  <si>
-    <t>battery capacity, Na-NiCl</t>
-  </si>
-  <si>
-    <t>market for used Li-ion battery</t>
-  </si>
-  <si>
-    <t>used Li-ion battery</t>
-  </si>
-  <si>
-    <t>market for battery capacity, Li-ion, LiMn2O4</t>
-  </si>
-  <si>
-    <t>battery capacity, Li-ion, LiMn2O4</t>
-  </si>
-  <si>
-    <t>market for battery capacity, Li-sulfur, Li-S</t>
-  </si>
-  <si>
-    <t>battery capacity, Li-sulfur, Li-S</t>
-  </si>
-  <si>
-    <t>uncertainty type</t>
-  </si>
-  <si>
-    <t>loc</t>
-  </si>
-  <si>
-    <t>minimum</t>
-  </si>
-  <si>
-    <t>maximum</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>market for battery capacity, Li-ion, NMC523</t>
-  </si>
-  <si>
-    <t>battery capacity, Li-ion, NMC523</t>
-  </si>
-  <si>
-    <t>market for battery, Li-ion, NMC523</t>
-  </si>
-  <si>
-    <t>battery, Li-ion, NMC523</t>
-  </si>
-  <si>
-    <t>market for battery capacity, Li-ion, NMC955</t>
-  </si>
-  <si>
-    <t>battery capacity, Li-ion, NMC955</t>
-  </si>
-  <si>
-    <t>market for battery, Li-ion, NMC955</t>
-  </si>
-  <si>
-    <t>battery, Li-ion, NMC955</t>
-  </si>
-  <si>
-    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion LFP battery. Specific energy density in 2020: (min, mean, max) 0.140, 0.160, 0.190 kWh/kg cell. Battery management (BoP) mass share: 27%. Battery energy density in 2020: 0.10 kWh/kg battery. Battery mass per kWh: 8.6 kg. Lifetime: 3'000-3'500 cycles. Source for parameters: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
-  </si>
-  <si>
-    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion NMC111 battery. Specific cell energy density in 2020: (min, mean, max) 0.150, 0.180, 0.190 kWh/kg cell. Battery management (BoP) mass share: 27%. Battery energy density in 2020: 0.13 kWh/kg battery. Battery mass per kWh: 7.6 kg. Lifetime: 1'000-1'800 cycles. Source for parameters: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
-  </si>
-  <si>
-    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion NMC523 battery. Specific energy density in 2020: (min, mean, max) 0.170, 0.200, 0.220 kWh/kg cell. Battery management (BoP) mass share: 27%. Battery energy density in 2020: 0.150 kWh/kg battery. Battery mass per kWh: 6.95 kg. Lifetime: 1'000-1'500 cycles. Source for parameters: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
-  </si>
-  <si>
-    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion NMC622 battery. Specific energy density in 2020: (min, mean, max) 0.200, 0.240, 0.280 kWh/kg cell. Battery management (BoP) mass share: 27%. Battery energy density in 2020: 0.180 kWh/kg battery. Battery mass per kWh: 6.85 kg. Lifetime: 1'000-1'500 cycles. Source for parameters: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
-  </si>
-  <si>
-    <t>This dataset provides 1 kWh of battery gross capacity (not NET), using a Li-ion NMC811 battery. Specific energy density in 2020: (min, mean, max) 0.240, 0.280, 0.340 kWh/kg cell. Battery management (BoP) mass share: 29%. Battery energy density in 2020: 0.20 kWh/kg battery. Battery mass per kWh: 5.03 kg. Lifetime: 1'000-1'200 cycles. Source for parameters: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
-  </si>
-  <si>
-    <t>This dataset provides 1 kWh of battery gross capacity (not NET), using a Li-ion NCA battery. Specific energy density in 2020: (min, mean, max) 0.240, 0.280, 0.340 kWh/kg cell. Battery management (BoP) mass share: 29%. Battery energy density in 2020: 0.20 kWh/kg battery. Battery mass per kWh: 5.03 kg. Lifetime: 800-1'600 cycles. Source for parameters: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
-  </si>
-  <si>
-    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Sodium-ion battery. Specific energy density in 2020: 0.157 kWh/kg cell. Battery management (BoP) mass share: 25%. Battery energy density in 2020: 0.12 kWh/kg battery. Battery mass per kWh: 8.5 kg. Lifetime: 628 kWh/kg cell (4000 cycles x 0.157 kWh) or 2'500-4'000 cycles. Source for parameters: Zhang, S., Steubing, B., Potter, H. K., Hansson, P. A., &amp; Nordberg, Å. (2024). Future climate impacts of sodium-ion batteries. Resources, Conservation and Recycling, 202, 107362. https://doi.org/10.1016/j.resconrec.2023.107362. Min and max values from: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
-  </si>
-  <si>
-    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion Li-S battery. Specific energy density in 2020: 0.15 kWh/kg cell, 0.5 kWh/kg cell in the future. Battery management (BoP) mass share: 25%. Battery energy density in 2020: 0.11 kWh/kg battery. Battery mass per kWh: 8.9 kg. Cycle life: 800-1'500 or Lifetime: 225 kWh/kg. Source: Wickerts et al. (2023). Prospective Life Cycle Assessment of Lithium-Sulfur Batteries for Stationary Energy Storage. ACS Sustainable Chemistry &amp; Engineering. https://doi.org/10.1021/acssuschemeng.3c00141</t>
-  </si>
-  <si>
-    <t>This dataset provides 1 kWh of battery gross capacity (not NET), using a Li-ion NMC955 battery. Specific energy density in 2020: (min, mean, max) 0.300, 0.340, 0.380 kWh/kg cell. Battery management (BoP) mass share: 29%. Battery energy density in 2030: 0.240 kWh/kg battery. Battery mass per kWh: 5.03 kg. Lifetime: 1'000-1'500 cycles. Source for parameters: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
-  </si>
-  <si>
-    <t>This dataset provides a market average for 1 kWh of battery gross capacity (NOT net). It is based on shares provided by Degen, F., Winter, M., Bendig, D. et al. Energy consumption of current and future production of lithium-ion and post lithium-ion battery cells. Nat Energy 8, 1284–1295 (2023). https://doi.org/10.1038/s41560-023-01355-z. The default scenario is "MIX scenario", which sees an increasing market share for novel post-lithium chemistries.</t>
-  </si>
-  <si>
-    <t>Market shares from Degen, F., Winter, M., Bendig, D. et al. Energy consumption of current and future production of lithium-ion and post lithium-ion battery cells. Nat Energy 8, 1284–1295 (2023). https://doi.org/10.1038/s41560-023-01355-z</t>
-  </si>
-  <si>
-    <t>market for battery capacity (MIX scenario)</t>
-  </si>
-  <si>
-    <t>market for battery capacity (LFP scenario)</t>
-  </si>
-  <si>
-    <t>market for battery capacity (NCx scenario)</t>
-  </si>
-  <si>
-    <t>market for battery capacity (PLiB scenario)</t>
+    <t>batteries</t>
+  </si>
+  <si>
+    <t>market for battery capacity, redox-flow, Vanadium, stationary</t>
+  </si>
+  <si>
+    <t>This dataset provides a market average for 1 kWh of battery gross capacity (NOT net). It is based on shares provided by Schlichenmaier &amp; Naegler (2022) https://doi.org/10.1016/j.egyr.2022.11.025</t>
+  </si>
+  <si>
+    <t>battery capacity, redox-flow, Vanadium</t>
   </si>
 </sst>
 </file>
@@ -709,41 +785,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N266"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B172" sqref="B172:B244"/>
+    <sheetView topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.5" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="1" max="1" width="46.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -751,7 +827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -759,15 +835,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -776,22 +852,22 @@
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9">
         <f>1-0.27</f>
         <v>0.73</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="7"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -811,22 +887,22 @@
         <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
         <f>B3</f>
         <v>market for battery capacity, Li-ion, LFP</v>
@@ -849,9 +925,9 @@
         <v>battery capacity, Li-ion, LFP</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="7">
         <f>1/(0.16*(1-27%))</f>
@@ -867,7 +943,7 @@
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -885,9 +961,9 @@
         <v>9.7847358121330714</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="7">
         <f>-1*B13</f>
@@ -903,7 +979,7 @@
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -926,23 +1002,23 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
     </row>
-    <row r="16" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -950,7 +1026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -958,15 +1034,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -974,22 +1050,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22">
         <f>1-0.27</f>
         <v>0.73</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -1009,22 +1085,22 @@
         <v>5</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="str">
         <f>B16</f>
         <v>market for battery capacity, Li-ion, NMC111</v>
@@ -1047,9 +1123,9 @@
         <v>battery capacity, Li-ion, NMC111</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="3">
         <f>1/(0.18*73%)</f>
@@ -1065,7 +1141,7 @@
         <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G26">
         <v>5</v>
@@ -1083,9 +1159,9 @@
         <v>9.7847358121330714</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="3">
         <f>-1*B26</f>
@@ -1101,7 +1177,7 @@
         <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G27">
         <v>5</v>
@@ -1124,23 +1200,23 @@
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
     </row>
-    <row r="29" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1148,7 +1224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1156,15 +1232,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1172,22 +1248,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <f>1-0.27</f>
         <v>0.73</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
@@ -1207,22 +1283,22 @@
         <v>5</v>
       </c>
       <c r="G37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="K37" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K37" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
         <f>B29</f>
         <v>market for battery capacity, Li-ion, NMC523</v>
@@ -1245,9 +1321,9 @@
         <v>battery capacity, Li-ion, NMC523</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B39" s="3">
         <f>1/(0.2*73%)</f>
@@ -1263,7 +1339,7 @@
         <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G39">
         <v>5</v>
@@ -1281,9 +1357,9 @@
         <v>8.058017727639001</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B40" s="3">
         <f>-1*B39</f>
@@ -1299,7 +1375,7 @@
         <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G40">
         <v>5</v>
@@ -1322,23 +1398,23 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
     </row>
-    <row r="42" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -1346,7 +1422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1354,16 +1430,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -1372,22 +1448,22 @@
       </c>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48">
         <f>1-0.27</f>
         <v>0.73</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B49" s="3"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>10</v>
       </c>
@@ -1407,22 +1483,22 @@
         <v>5</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="I50" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="J50" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="K50" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K50" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="str">
         <f>B42</f>
         <v>market for battery capacity, Li-ion, NMC622</v>
@@ -1445,9 +1521,9 @@
         <v>battery capacity, Li-ion, NMC622</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B52" s="3">
         <f>1/(0.24*73%)</f>
@@ -1463,7 +1539,7 @@
         <v>14</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G52">
         <v>5</v>
@@ -1481,9 +1557,9 @@
         <v>6.8493150684931514</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B53" s="3">
         <f>-1*B52</f>
@@ -1499,7 +1575,7 @@
         <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G53">
         <v>5</v>
@@ -1522,23 +1598,23 @@
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
     </row>
-    <row r="55" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -1546,7 +1622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -1554,15 +1630,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -1571,12 +1647,12 @@
       </c>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>9</v>
       </c>
@@ -1585,7 +1661,7 @@
         <v>0.1988</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>10</v>
       </c>
@@ -1605,22 +1681,22 @@
         <v>5</v>
       </c>
       <c r="G63" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="I63" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="J63" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="K63" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K63" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="str">
         <f>B55</f>
         <v>market for battery capacity, Li-ion, NMC811</v>
@@ -1643,9 +1719,9 @@
         <v>battery capacity, Li-ion, NMC811</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B65" s="3">
         <f>1/(0.28*71%)</f>
@@ -1661,7 +1737,7 @@
         <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G65">
         <v>5</v>
@@ -1679,9 +1755,9 @@
         <v>5.868544600938967</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" s="3">
         <f>-1*B65</f>
@@ -1697,7 +1773,7 @@
         <v>14</v>
       </c>
       <c r="F66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G66">
         <v>5</v>
@@ -1720,23 +1796,23 @@
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
     </row>
-    <row r="68" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -1744,7 +1820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -1752,15 +1828,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -1769,21 +1845,21 @@
       </c>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B74">
         <f>1-0.29</f>
         <v>0.71</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>10</v>
       </c>
@@ -1803,22 +1879,22 @@
         <v>5</v>
       </c>
       <c r="G76" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H76" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="I76" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="J76" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J76" s="1" t="s">
+      <c r="K76" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K76" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="str">
         <f>B68</f>
         <v>market for battery capacity, Li-ion, NMC955</v>
@@ -1841,9 +1917,9 @@
         <v>battery capacity, Li-ion, NMC955</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" s="3">
         <f>1/(0.34*71%)</f>
@@ -1859,7 +1935,7 @@
         <v>14</v>
       </c>
       <c r="F78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G78">
         <v>5</v>
@@ -1877,9 +1953,9 @@
         <v>4.694835680751174</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B79" s="3">
         <f>-1*B78</f>
@@ -1895,7 +1971,7 @@
         <v>14</v>
       </c>
       <c r="F79" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G79">
         <v>5</v>
@@ -1918,23 +1994,23 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
     </row>
-    <row r="81" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>2</v>
       </c>
@@ -1942,7 +2018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -1950,15 +2026,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -1967,21 +2043,21 @@
       </c>
       <c r="D86" s="3"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B87">
         <f>1-0.293</f>
         <v>0.70700000000000007</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>10</v>
       </c>
@@ -2001,22 +2077,22 @@
         <v>5</v>
       </c>
       <c r="G89" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H89" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H89" s="1" t="s">
+      <c r="I89" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I89" s="1" t="s">
+      <c r="J89" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J89" s="1" t="s">
+      <c r="K89" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K89" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="str">
         <f>B81</f>
         <v>market for battery capacity, Li-ion, NCA</v>
@@ -2039,9 +2115,9 @@
         <v>battery capacity, Li-ion, NCA</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B91" s="3">
         <f>1/(0.28*71%)</f>
@@ -2057,7 +2133,7 @@
         <v>14</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G91">
         <v>5</v>
@@ -2075,9 +2151,9 @@
         <v>5.868544600938967</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B92" s="3">
         <f>-1*B91</f>
@@ -2093,7 +2169,7 @@
         <v>14</v>
       </c>
       <c r="F92" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G92">
         <v>5</v>
@@ -2116,23 +2192,23 @@
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
     </row>
-    <row r="94" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>2</v>
       </c>
@@ -2140,7 +2216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -2148,16 +2224,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -2165,21 +2241,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B100">
         <f>1-0.36</f>
         <v>0.64</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>10</v>
       </c>
@@ -2199,22 +2275,22 @@
         <v>5</v>
       </c>
       <c r="G102" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H102" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H102" s="1" t="s">
+      <c r="I102" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I102" s="1" t="s">
+      <c r="J102" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J102" s="1" t="s">
+      <c r="K102" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K102" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="str">
         <f>B94</f>
         <v>market for battery capacity, Li-ion, LTO</v>
@@ -2237,9 +2313,9 @@
         <v>battery capacity, Li-ion, LTO</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B104" s="3">
         <f>1/(0.085*64%)</f>
@@ -2255,7 +2331,7 @@
         <v>14</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G104">
         <v>5</v>
@@ -2273,9 +2349,9 @@
         <v>22.977941176470587</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B105" s="3">
         <f>-1*B104</f>
@@ -2291,7 +2367,7 @@
         <v>14</v>
       </c>
       <c r="F105" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G105">
         <v>5</v>
@@ -2314,23 +2390,23 @@
       <c r="M105" s="7"/>
       <c r="N105" s="7"/>
     </row>
-    <row r="107" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1</v>
       </c>
       <c r="B108" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>2</v>
       </c>
@@ -2338,7 +2414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>4</v>
       </c>
@@ -2346,15 +2422,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>5</v>
       </c>
       <c r="B111" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>6</v>
       </c>
@@ -2363,21 +2439,21 @@
       </c>
       <c r="E112" s="3"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B113">
         <f>1-0.13</f>
         <v>0.87</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>10</v>
       </c>
@@ -2397,22 +2473,22 @@
         <v>5</v>
       </c>
       <c r="G115" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H115" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H115" s="1" t="s">
+      <c r="I115" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I115" s="1" t="s">
+      <c r="J115" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J115" s="1" t="s">
+      <c r="K115" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K115" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="str">
         <f>B107</f>
         <v>market for battery capacity, Li-ion, LiMn2O4</v>
@@ -2435,9 +2511,9 @@
         <v>battery capacity, Li-ion, LiMn2O4</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B117" s="3">
         <f>1/(32/280)</f>
@@ -2453,7 +2529,7 @@
         <v>14</v>
       </c>
       <c r="F117" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G117">
         <v>5</v>
@@ -2471,9 +2547,9 @@
         <v>10.9375</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B118" s="3">
         <f>-1*B117</f>
@@ -2489,7 +2565,7 @@
         <v>14</v>
       </c>
       <c r="F118" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G118">
         <v>5</v>
@@ -2512,23 +2588,23 @@
       <c r="M118" s="7"/>
       <c r="N118" s="7"/>
     </row>
-    <row r="120" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>1</v>
       </c>
       <c r="B121" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -2536,7 +2612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>4</v>
       </c>
@@ -2544,15 +2620,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>6</v>
       </c>
@@ -2561,21 +2637,21 @@
       </c>
       <c r="D125" s="3"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B126">
         <f>1-0.25</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>10</v>
       </c>
@@ -2595,22 +2671,22 @@
         <v>5</v>
       </c>
       <c r="G128" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H128" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H128" s="1" t="s">
+      <c r="I128" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I128" s="1" t="s">
+      <c r="J128" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J128" s="1" t="s">
+      <c r="K128" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K128" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="str">
         <f>B120</f>
         <v>market for battery capacity, Li-sulfur, Li-S</v>
@@ -2633,9 +2709,9 @@
         <v>battery capacity, Li-sulfur, Li-S</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B130" s="3">
         <f>1/(0.15*75%)</f>
@@ -2651,7 +2727,7 @@
         <v>14</v>
       </c>
       <c r="F130" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G130">
         <v>5</v>
@@ -2669,9 +2745,9 @@
         <v>9.5238095238095237</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B131" s="3">
         <f>-1*B130</f>
@@ -2687,7 +2763,7 @@
         <v>14</v>
       </c>
       <c r="F131" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G131">
         <v>5</v>
@@ -2710,23 +2786,23 @@
       <c r="M131" s="3"/>
       <c r="N131" s="3"/>
     </row>
-    <row r="133" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>1</v>
       </c>
       <c r="B134" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>2</v>
       </c>
@@ -2734,7 +2810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>4</v>
       </c>
@@ -2742,15 +2818,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>5</v>
       </c>
       <c r="B137" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>6</v>
       </c>
@@ -2758,21 +2834,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B139">
         <f>1-0.45</f>
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="140" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>10</v>
       </c>
@@ -2792,22 +2868,22 @@
         <v>5</v>
       </c>
       <c r="G141" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H141" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H141" s="1" t="s">
+      <c r="I141" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I141" s="1" t="s">
+      <c r="J141" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J141" s="1" t="s">
+      <c r="K141" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K141" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="str">
         <f>B133</f>
         <v>market for battery capacity, Li-ion, Li-O2</v>
@@ -2830,9 +2906,9 @@
         <v>battery capacity, Li-ion, Li-O2</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B143" s="3">
         <f>1/0.198</f>
@@ -2848,7 +2924,7 @@
         <v>14</v>
       </c>
       <c r="F143" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G143">
         <v>5</v>
@@ -2866,9 +2942,9 @@
         <v>6.3131313131313131</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B144" s="3">
         <f>-1*B143</f>
@@ -2884,7 +2960,7 @@
         <v>14</v>
       </c>
       <c r="F144" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G144">
         <v>5</v>
@@ -2907,23 +2983,23 @@
       <c r="M144" s="7"/>
       <c r="N144" s="7"/>
     </row>
-    <row r="146" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>1</v>
       </c>
       <c r="B147" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>2</v>
       </c>
@@ -2931,7 +3007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>4</v>
       </c>
@@ -2939,16 +3015,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>5</v>
       </c>
       <c r="B150" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E150" s="3"/>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -2956,21 +3032,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B152">
         <f>1-0.25</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="153" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>10</v>
       </c>
@@ -2990,22 +3066,22 @@
         <v>5</v>
       </c>
       <c r="G154" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H154" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H154" s="1" t="s">
+      <c r="I154" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I154" s="1" t="s">
+      <c r="J154" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J154" s="1" t="s">
+      <c r="K154" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K154" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="str">
         <f>B146</f>
         <v>market for battery capacity, Sodium-ion, SiB</v>
@@ -3028,9 +3104,9 @@
         <v>battery capacity, Sodium-ion, SiB</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B156" s="3">
         <f>1/(0.16*75%)</f>
@@ -3046,7 +3122,7 @@
         <v>14</v>
       </c>
       <c r="F156" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G156">
         <v>5</v>
@@ -3064,9 +3140,9 @@
         <v>8.3333333333333339</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B157" s="3">
         <f>-1*B156</f>
@@ -3082,7 +3158,7 @@
         <v>14</v>
       </c>
       <c r="F157" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G157">
         <v>5</v>
@@ -3105,23 +3181,23 @@
       <c r="M157" s="3"/>
       <c r="N157" s="3"/>
     </row>
-    <row r="159" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>1</v>
       </c>
       <c r="B160" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>2</v>
       </c>
@@ -3129,7 +3205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -3137,15 +3213,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>5</v>
       </c>
       <c r="B163" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>6</v>
       </c>
@@ -3153,15 +3229,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>8</v>
       </c>
       <c r="B165" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>9</v>
       </c>
@@ -3172,7 +3248,7 @@
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>10</v>
       </c>
@@ -3192,22 +3268,22 @@
         <v>5</v>
       </c>
       <c r="G167" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H167" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H167" s="1" t="s">
+      <c r="I167" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I167" s="1" t="s">
+      <c r="J167" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J167" s="1" t="s">
+      <c r="K167" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K167" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="str">
         <f>B159</f>
         <v>market for battery capacity, Sodium-Nickel-Chloride, Na-NiCl</v>
@@ -3230,9 +3306,9 @@
         <v>battery capacity, Na-NiCl</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B169" s="3">
         <f>1/0.116</f>
@@ -3248,7 +3324,7 @@
         <v>14</v>
       </c>
       <c r="F169" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G169">
         <v>5</v>
@@ -3266,9 +3342,9 @@
         <v>10.775862068965516</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B170" s="3">
         <f>-1*B169</f>
@@ -3284,7 +3360,7 @@
         <v>14</v>
       </c>
       <c r="F170" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G170">
         <v>5</v>
@@ -3307,23 +3383,23 @@
       <c r="M170" s="7"/>
       <c r="N170" s="7"/>
     </row>
-    <row r="172" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1</v>
       </c>
       <c r="B173" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>2</v>
       </c>
@@ -3331,7 +3407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>4</v>
       </c>
@@ -3339,15 +3415,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>5</v>
       </c>
       <c r="B176" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>6</v>
       </c>
@@ -3355,15 +3431,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>8</v>
       </c>
       <c r="B178" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>9</v>
       </c>
@@ -3374,7 +3450,7 @@
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>10</v>
       </c>
@@ -3399,7 +3475,7 @@
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
         <f>B172</f>
         <v>market for battery capacity (MIX scenario)</v>
@@ -3417,7 +3493,7 @@
         <v>13</v>
       </c>
       <c r="F181" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
@@ -3425,29 +3501,29 @@
       <c r="J181" s="1"/>
       <c r="K181" s="1"/>
     </row>
-    <row r="182" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="C182" t="s">
+        <v>15</v>
+      </c>
+      <c r="D182" t="s">
+        <v>3</v>
+      </c>
+      <c r="E182" t="s">
+        <v>14</v>
+      </c>
+      <c r="F182" t="s">
         <v>17</v>
       </c>
-      <c r="B182">
-        <v>0</v>
-      </c>
-      <c r="C182" t="s">
-        <v>15</v>
-      </c>
-      <c r="D182" t="s">
-        <v>3</v>
-      </c>
-      <c r="E182" t="s">
-        <v>14</v>
-      </c>
-      <c r="F182" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -3462,192 +3538,192 @@
         <v>14</v>
       </c>
       <c r="F183" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A184" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184" t="s">
+        <v>15</v>
+      </c>
+      <c r="D184" t="s">
+        <v>3</v>
+      </c>
+      <c r="E184" t="s">
+        <v>14</v>
+      </c>
+      <c r="F184" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185" t="s">
+        <v>15</v>
+      </c>
+      <c r="D185" t="s">
+        <v>3</v>
+      </c>
+      <c r="E185" t="s">
+        <v>14</v>
+      </c>
+      <c r="F185" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A184" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B184">
-        <v>0</v>
-      </c>
-      <c r="C184" t="s">
-        <v>15</v>
-      </c>
-      <c r="D184" t="s">
-        <v>3</v>
-      </c>
-      <c r="E184" t="s">
-        <v>14</v>
-      </c>
-      <c r="F184" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A185" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B185">
-        <v>0</v>
-      </c>
-      <c r="C185" t="s">
-        <v>15</v>
-      </c>
-      <c r="D185" t="s">
-        <v>3</v>
-      </c>
-      <c r="E185" t="s">
-        <v>14</v>
-      </c>
-      <c r="F185" t="s">
+    <row r="186" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A186" s="4" t="s">
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186" t="s">
+        <v>15</v>
+      </c>
+      <c r="D186" t="s">
+        <v>3</v>
+      </c>
+      <c r="E186" t="s">
+        <v>14</v>
+      </c>
+      <c r="F186" t="s">
         <v>27</v>
       </c>
-      <c r="B186">
-        <v>0</v>
-      </c>
-      <c r="C186" t="s">
-        <v>15</v>
-      </c>
-      <c r="D186" t="s">
-        <v>3</v>
-      </c>
-      <c r="E186" t="s">
-        <v>14</v>
-      </c>
-      <c r="F186" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187" t="s">
+        <v>15</v>
+      </c>
+      <c r="D187" t="s">
+        <v>3</v>
+      </c>
+      <c r="E187" t="s">
+        <v>14</v>
+      </c>
+      <c r="F187" t="s">
         <v>79</v>
       </c>
-      <c r="B187">
-        <v>0</v>
-      </c>
-      <c r="C187" t="s">
-        <v>15</v>
-      </c>
-      <c r="D187" t="s">
-        <v>3</v>
-      </c>
-      <c r="E187" t="s">
-        <v>14</v>
-      </c>
-      <c r="F187" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188" t="s">
+        <v>15</v>
+      </c>
+      <c r="D188" t="s">
+        <v>3</v>
+      </c>
+      <c r="E188" t="s">
+        <v>14</v>
+      </c>
+      <c r="F188" t="s">
         <v>32</v>
       </c>
-      <c r="B188">
-        <v>0</v>
-      </c>
-      <c r="C188" t="s">
-        <v>15</v>
-      </c>
-      <c r="D188" t="s">
-        <v>3</v>
-      </c>
-      <c r="E188" t="s">
-        <v>14</v>
-      </c>
-      <c r="F188" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189" t="s">
+        <v>15</v>
+      </c>
+      <c r="D189" t="s">
+        <v>3</v>
+      </c>
+      <c r="E189" t="s">
+        <v>14</v>
+      </c>
+      <c r="F189" t="s">
         <v>37</v>
       </c>
-      <c r="B189">
-        <v>0</v>
-      </c>
-      <c r="C189" t="s">
-        <v>15</v>
-      </c>
-      <c r="D189" t="s">
-        <v>3</v>
-      </c>
-      <c r="E189" t="s">
-        <v>14</v>
-      </c>
-      <c r="F189" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190" t="s">
+        <v>15</v>
+      </c>
+      <c r="D190" t="s">
+        <v>3</v>
+      </c>
+      <c r="E190" t="s">
+        <v>14</v>
+      </c>
+      <c r="F190" t="s">
         <v>66</v>
       </c>
-      <c r="B190">
-        <v>0</v>
-      </c>
-      <c r="C190" t="s">
-        <v>15</v>
-      </c>
-      <c r="D190" t="s">
-        <v>3</v>
-      </c>
-      <c r="E190" t="s">
-        <v>14</v>
-      </c>
-      <c r="F190" t="s">
+    </row>
+    <row r="191" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A191" s="4" t="s">
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="C191" t="s">
+        <v>15</v>
+      </c>
+      <c r="D191" t="s">
+        <v>3</v>
+      </c>
+      <c r="E191" t="s">
+        <v>14</v>
+      </c>
+      <c r="F191" t="s">
         <v>68</v>
       </c>
-      <c r="B191">
-        <v>0</v>
-      </c>
-      <c r="C191" t="s">
-        <v>15</v>
-      </c>
-      <c r="D191" t="s">
-        <v>3</v>
-      </c>
-      <c r="E191" t="s">
-        <v>14</v>
-      </c>
-      <c r="F191" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192" t="s">
+        <v>15</v>
+      </c>
+      <c r="D192" t="s">
+        <v>3</v>
+      </c>
+      <c r="E192" t="s">
+        <v>14</v>
+      </c>
+      <c r="F192" t="s">
         <v>43</v>
       </c>
-      <c r="B192">
-        <v>0</v>
-      </c>
-      <c r="C192" t="s">
-        <v>15</v>
-      </c>
-      <c r="D192" t="s">
-        <v>3</v>
-      </c>
-      <c r="E192" t="s">
-        <v>14</v>
-      </c>
-      <c r="F192" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -3662,12 +3738,12 @@
         <v>14</v>
       </c>
       <c r="F193" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -3682,26 +3758,26 @@
         <v>14</v>
       </c>
       <c r="F194" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>1</v>
       </c>
       <c r="B197" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>2</v>
       </c>
@@ -3709,7 +3785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>4</v>
       </c>
@@ -3717,15 +3793,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>5</v>
       </c>
       <c r="B200" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>6</v>
       </c>
@@ -3733,15 +3809,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>9</v>
       </c>
@@ -3752,7 +3828,7 @@
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>10</v>
       </c>
@@ -3777,7 +3853,7 @@
       <c r="J204" s="1"/>
       <c r="K204" s="1"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="str">
         <f>B196</f>
         <v>market for battery capacity (LFP scenario)</v>
@@ -3795,7 +3871,7 @@
         <v>13</v>
       </c>
       <c r="F205" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
@@ -3803,29 +3879,29 @@
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
     </row>
-    <row r="206" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206" t="s">
+        <v>15</v>
+      </c>
+      <c r="D206" t="s">
+        <v>3</v>
+      </c>
+      <c r="E206" t="s">
+        <v>14</v>
+      </c>
+      <c r="F206" t="s">
         <v>17</v>
       </c>
-      <c r="B206">
-        <v>0</v>
-      </c>
-      <c r="C206" t="s">
-        <v>15</v>
-      </c>
-      <c r="D206" t="s">
-        <v>3</v>
-      </c>
-      <c r="E206" t="s">
-        <v>14</v>
-      </c>
-      <c r="F206" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B207">
         <v>0</v>
@@ -3840,192 +3916,192 @@
         <v>14</v>
       </c>
       <c r="F207" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A208" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208" t="s">
+        <v>15</v>
+      </c>
+      <c r="D208" t="s">
+        <v>3</v>
+      </c>
+      <c r="E208" t="s">
+        <v>14</v>
+      </c>
+      <c r="F208" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A209" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209" t="s">
+        <v>15</v>
+      </c>
+      <c r="D209" t="s">
+        <v>3</v>
+      </c>
+      <c r="E209" t="s">
+        <v>14</v>
+      </c>
+      <c r="F209" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="208" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A208" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B208">
-        <v>0</v>
-      </c>
-      <c r="C208" t="s">
-        <v>15</v>
-      </c>
-      <c r="D208" t="s">
-        <v>3</v>
-      </c>
-      <c r="E208" t="s">
-        <v>14</v>
-      </c>
-      <c r="F208" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A209" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B209">
-        <v>0</v>
-      </c>
-      <c r="C209" t="s">
-        <v>15</v>
-      </c>
-      <c r="D209" t="s">
-        <v>3</v>
-      </c>
-      <c r="E209" t="s">
-        <v>14</v>
-      </c>
-      <c r="F209" t="s">
+    <row r="210" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A210" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A210" s="4" t="s">
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="C210" t="s">
+        <v>15</v>
+      </c>
+      <c r="D210" t="s">
+        <v>3</v>
+      </c>
+      <c r="E210" t="s">
+        <v>14</v>
+      </c>
+      <c r="F210" t="s">
         <v>27</v>
       </c>
-      <c r="B210">
-        <v>0</v>
-      </c>
-      <c r="C210" t="s">
-        <v>15</v>
-      </c>
-      <c r="D210" t="s">
-        <v>3</v>
-      </c>
-      <c r="E210" t="s">
-        <v>14</v>
-      </c>
-      <c r="F210" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="C211" t="s">
+        <v>15</v>
+      </c>
+      <c r="D211" t="s">
+        <v>3</v>
+      </c>
+      <c r="E211" t="s">
+        <v>14</v>
+      </c>
+      <c r="F211" t="s">
         <v>79</v>
       </c>
-      <c r="B211">
-        <v>0</v>
-      </c>
-      <c r="C211" t="s">
-        <v>15</v>
-      </c>
-      <c r="D211" t="s">
-        <v>3</v>
-      </c>
-      <c r="E211" t="s">
-        <v>14</v>
-      </c>
-      <c r="F211" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212" t="s">
+        <v>15</v>
+      </c>
+      <c r="D212" t="s">
+        <v>3</v>
+      </c>
+      <c r="E212" t="s">
+        <v>14</v>
+      </c>
+      <c r="F212" t="s">
         <v>32</v>
       </c>
-      <c r="B212">
-        <v>0</v>
-      </c>
-      <c r="C212" t="s">
-        <v>15</v>
-      </c>
-      <c r="D212" t="s">
-        <v>3</v>
-      </c>
-      <c r="E212" t="s">
-        <v>14</v>
-      </c>
-      <c r="F212" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213" t="s">
+        <v>15</v>
+      </c>
+      <c r="D213" t="s">
+        <v>3</v>
+      </c>
+      <c r="E213" t="s">
+        <v>14</v>
+      </c>
+      <c r="F213" t="s">
         <v>37</v>
       </c>
-      <c r="B213">
-        <v>0</v>
-      </c>
-      <c r="C213" t="s">
-        <v>15</v>
-      </c>
-      <c r="D213" t="s">
-        <v>3</v>
-      </c>
-      <c r="E213" t="s">
-        <v>14</v>
-      </c>
-      <c r="F213" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="C214" t="s">
+        <v>15</v>
+      </c>
+      <c r="D214" t="s">
+        <v>3</v>
+      </c>
+      <c r="E214" t="s">
+        <v>14</v>
+      </c>
+      <c r="F214" t="s">
         <v>66</v>
       </c>
-      <c r="B214">
-        <v>0</v>
-      </c>
-      <c r="C214" t="s">
-        <v>15</v>
-      </c>
-      <c r="D214" t="s">
-        <v>3</v>
-      </c>
-      <c r="E214" t="s">
-        <v>14</v>
-      </c>
-      <c r="F214" t="s">
+    </row>
+    <row r="215" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A215" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A215" s="4" t="s">
+      <c r="B215">
+        <v>0</v>
+      </c>
+      <c r="C215" t="s">
+        <v>15</v>
+      </c>
+      <c r="D215" t="s">
+        <v>3</v>
+      </c>
+      <c r="E215" t="s">
+        <v>14</v>
+      </c>
+      <c r="F215" t="s">
         <v>68</v>
       </c>
-      <c r="B215">
-        <v>0</v>
-      </c>
-      <c r="C215" t="s">
-        <v>15</v>
-      </c>
-      <c r="D215" t="s">
-        <v>3</v>
-      </c>
-      <c r="E215" t="s">
-        <v>14</v>
-      </c>
-      <c r="F215" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="C216" t="s">
+        <v>15</v>
+      </c>
+      <c r="D216" t="s">
+        <v>3</v>
+      </c>
+      <c r="E216" t="s">
+        <v>14</v>
+      </c>
+      <c r="F216" t="s">
         <v>43</v>
       </c>
-      <c r="B216">
-        <v>0</v>
-      </c>
-      <c r="C216" t="s">
-        <v>15</v>
-      </c>
-      <c r="D216" t="s">
-        <v>3</v>
-      </c>
-      <c r="E216" t="s">
-        <v>14</v>
-      </c>
-      <c r="F216" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B217">
         <v>0</v>
@@ -4040,12 +4116,12 @@
         <v>14</v>
       </c>
       <c r="F217" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B218">
         <v>0</v>
@@ -4060,26 +4136,26 @@
         <v>14</v>
       </c>
       <c r="F218" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>1</v>
       </c>
       <c r="B221" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>2</v>
       </c>
@@ -4087,7 +4163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>4</v>
       </c>
@@ -4095,15 +4171,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>5</v>
       </c>
       <c r="B224" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>6</v>
       </c>
@@ -4111,15 +4187,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>8</v>
       </c>
       <c r="B226" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>9</v>
       </c>
@@ -4130,7 +4206,7 @@
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>10</v>
       </c>
@@ -4155,7 +4231,7 @@
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" t="str">
         <f>B220</f>
         <v>market for battery capacity (NCx scenario)</v>
@@ -4173,7 +4249,7 @@
         <v>13</v>
       </c>
       <c r="F229" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
@@ -4181,29 +4257,29 @@
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
     </row>
-    <row r="230" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230" t="s">
+        <v>15</v>
+      </c>
+      <c r="D230" t="s">
+        <v>3</v>
+      </c>
+      <c r="E230" t="s">
+        <v>14</v>
+      </c>
+      <c r="F230" t="s">
         <v>17</v>
       </c>
-      <c r="B230">
-        <v>0</v>
-      </c>
-      <c r="C230" t="s">
-        <v>15</v>
-      </c>
-      <c r="D230" t="s">
-        <v>3</v>
-      </c>
-      <c r="E230" t="s">
-        <v>14</v>
-      </c>
-      <c r="F230" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B231">
         <v>0</v>
@@ -4218,192 +4294,192 @@
         <v>14</v>
       </c>
       <c r="F231" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A232" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232" t="s">
+        <v>15</v>
+      </c>
+      <c r="D232" t="s">
+        <v>3</v>
+      </c>
+      <c r="E232" t="s">
+        <v>14</v>
+      </c>
+      <c r="F232" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A233" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233" t="s">
+        <v>15</v>
+      </c>
+      <c r="D233" t="s">
+        <v>3</v>
+      </c>
+      <c r="E233" t="s">
+        <v>14</v>
+      </c>
+      <c r="F233" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A232" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B232">
-        <v>0</v>
-      </c>
-      <c r="C232" t="s">
-        <v>15</v>
-      </c>
-      <c r="D232" t="s">
-        <v>3</v>
-      </c>
-      <c r="E232" t="s">
-        <v>14</v>
-      </c>
-      <c r="F232" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A233" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B233">
-        <v>0</v>
-      </c>
-      <c r="C233" t="s">
-        <v>15</v>
-      </c>
-      <c r="D233" t="s">
-        <v>3</v>
-      </c>
-      <c r="E233" t="s">
-        <v>14</v>
-      </c>
-      <c r="F233" t="s">
+    <row r="234" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A234" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="234" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A234" s="4" t="s">
+      <c r="B234">
+        <v>0</v>
+      </c>
+      <c r="C234" t="s">
+        <v>15</v>
+      </c>
+      <c r="D234" t="s">
+        <v>3</v>
+      </c>
+      <c r="E234" t="s">
+        <v>14</v>
+      </c>
+      <c r="F234" t="s">
         <v>27</v>
       </c>
-      <c r="B234">
-        <v>0</v>
-      </c>
-      <c r="C234" t="s">
-        <v>15</v>
-      </c>
-      <c r="D234" t="s">
-        <v>3</v>
-      </c>
-      <c r="E234" t="s">
-        <v>14</v>
-      </c>
-      <c r="F234" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
+      <c r="C235" t="s">
+        <v>15</v>
+      </c>
+      <c r="D235" t="s">
+        <v>3</v>
+      </c>
+      <c r="E235" t="s">
+        <v>14</v>
+      </c>
+      <c r="F235" t="s">
         <v>79</v>
       </c>
-      <c r="B235">
-        <v>0</v>
-      </c>
-      <c r="C235" t="s">
-        <v>15</v>
-      </c>
-      <c r="D235" t="s">
-        <v>3</v>
-      </c>
-      <c r="E235" t="s">
-        <v>14</v>
-      </c>
-      <c r="F235" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
+      <c r="C236" t="s">
+        <v>15</v>
+      </c>
+      <c r="D236" t="s">
+        <v>3</v>
+      </c>
+      <c r="E236" t="s">
+        <v>14</v>
+      </c>
+      <c r="F236" t="s">
         <v>32</v>
       </c>
-      <c r="B236">
-        <v>0</v>
-      </c>
-      <c r="C236" t="s">
-        <v>15</v>
-      </c>
-      <c r="D236" t="s">
-        <v>3</v>
-      </c>
-      <c r="E236" t="s">
-        <v>14</v>
-      </c>
-      <c r="F236" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+      <c r="C237" t="s">
+        <v>15</v>
+      </c>
+      <c r="D237" t="s">
+        <v>3</v>
+      </c>
+      <c r="E237" t="s">
+        <v>14</v>
+      </c>
+      <c r="F237" t="s">
         <v>37</v>
       </c>
-      <c r="B237">
-        <v>0</v>
-      </c>
-      <c r="C237" t="s">
-        <v>15</v>
-      </c>
-      <c r="D237" t="s">
-        <v>3</v>
-      </c>
-      <c r="E237" t="s">
-        <v>14</v>
-      </c>
-      <c r="F237" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B238">
+        <v>0</v>
+      </c>
+      <c r="C238" t="s">
+        <v>15</v>
+      </c>
+      <c r="D238" t="s">
+        <v>3</v>
+      </c>
+      <c r="E238" t="s">
+        <v>14</v>
+      </c>
+      <c r="F238" t="s">
         <v>66</v>
       </c>
-      <c r="B238">
-        <v>0</v>
-      </c>
-      <c r="C238" t="s">
-        <v>15</v>
-      </c>
-      <c r="D238" t="s">
-        <v>3</v>
-      </c>
-      <c r="E238" t="s">
-        <v>14</v>
-      </c>
-      <c r="F238" t="s">
+    </row>
+    <row r="239" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A239" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="239" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A239" s="4" t="s">
+      <c r="B239">
+        <v>0</v>
+      </c>
+      <c r="C239" t="s">
+        <v>15</v>
+      </c>
+      <c r="D239" t="s">
+        <v>3</v>
+      </c>
+      <c r="E239" t="s">
+        <v>14</v>
+      </c>
+      <c r="F239" t="s">
         <v>68</v>
       </c>
-      <c r="B239">
-        <v>0</v>
-      </c>
-      <c r="C239" t="s">
-        <v>15</v>
-      </c>
-      <c r="D239" t="s">
-        <v>3</v>
-      </c>
-      <c r="E239" t="s">
-        <v>14</v>
-      </c>
-      <c r="F239" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B240">
+        <v>0</v>
+      </c>
+      <c r="C240" t="s">
+        <v>15</v>
+      </c>
+      <c r="D240" t="s">
+        <v>3</v>
+      </c>
+      <c r="E240" t="s">
+        <v>14</v>
+      </c>
+      <c r="F240" t="s">
         <v>43</v>
       </c>
-      <c r="B240">
-        <v>0</v>
-      </c>
-      <c r="C240" t="s">
-        <v>15</v>
-      </c>
-      <c r="D240" t="s">
-        <v>3</v>
-      </c>
-      <c r="E240" t="s">
-        <v>14</v>
-      </c>
-      <c r="F240" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B241">
         <v>0</v>
@@ -4418,12 +4494,12 @@
         <v>14</v>
       </c>
       <c r="F241" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B242">
         <v>0</v>
@@ -4438,26 +4514,26 @@
         <v>14</v>
       </c>
       <c r="F242" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>1</v>
       </c>
       <c r="B245" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>2</v>
       </c>
@@ -4465,7 +4541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>4</v>
       </c>
@@ -4473,15 +4549,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>5</v>
       </c>
       <c r="B248" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>6</v>
       </c>
@@ -4489,15 +4565,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>8</v>
       </c>
       <c r="B250" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>9</v>
       </c>
@@ -4508,7 +4584,7 @@
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>10</v>
       </c>
@@ -4533,7 +4609,7 @@
       <c r="J252" s="1"/>
       <c r="K252" s="1"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" t="str">
         <f>B244</f>
         <v>market for battery capacity (PLiB scenario)</v>
@@ -4551,7 +4627,7 @@
         <v>13</v>
       </c>
       <c r="F253" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
@@ -4559,268 +4635,3026 @@
       <c r="J253" s="1"/>
       <c r="K253" s="1"/>
     </row>
-    <row r="254" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+      <c r="C254" t="s">
+        <v>15</v>
+      </c>
+      <c r="D254" t="s">
+        <v>3</v>
+      </c>
+      <c r="E254" t="s">
+        <v>14</v>
+      </c>
+      <c r="F254" t="s">
         <v>17</v>
       </c>
-      <c r="B254">
-        <v>0</v>
-      </c>
-      <c r="C254" t="s">
-        <v>15</v>
-      </c>
-      <c r="D254" t="s">
-        <v>3</v>
-      </c>
-      <c r="E254" t="s">
-        <v>14</v>
-      </c>
-      <c r="F254" t="s">
+    </row>
+    <row r="255" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A255" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
+      <c r="C255" t="s">
+        <v>15</v>
+      </c>
+      <c r="D255" t="s">
+        <v>3</v>
+      </c>
+      <c r="E255" t="s">
+        <v>14</v>
+      </c>
+      <c r="F255" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A256" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+      <c r="C256" t="s">
+        <v>15</v>
+      </c>
+      <c r="D256" t="s">
+        <v>3</v>
+      </c>
+      <c r="E256" t="s">
+        <v>14</v>
+      </c>
+      <c r="F256" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A257" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+      <c r="C257" t="s">
+        <v>15</v>
+      </c>
+      <c r="D257" t="s">
+        <v>3</v>
+      </c>
+      <c r="E257" t="s">
+        <v>14</v>
+      </c>
+      <c r="F257" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A258" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+      <c r="C258" t="s">
+        <v>15</v>
+      </c>
+      <c r="D258" t="s">
+        <v>3</v>
+      </c>
+      <c r="E258" t="s">
+        <v>14</v>
+      </c>
+      <c r="F258" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A259" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B259">
+        <v>0</v>
+      </c>
+      <c r="C259" t="s">
+        <v>15</v>
+      </c>
+      <c r="D259" t="s">
+        <v>3</v>
+      </c>
+      <c r="E259" t="s">
+        <v>14</v>
+      </c>
+      <c r="F259" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A260" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+      <c r="C260" t="s">
+        <v>15</v>
+      </c>
+      <c r="D260" t="s">
+        <v>3</v>
+      </c>
+      <c r="E260" t="s">
+        <v>14</v>
+      </c>
+      <c r="F260" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A261" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B261">
+        <v>0</v>
+      </c>
+      <c r="C261" t="s">
+        <v>15</v>
+      </c>
+      <c r="D261" t="s">
+        <v>3</v>
+      </c>
+      <c r="E261" t="s">
+        <v>14</v>
+      </c>
+      <c r="F261" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A262" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+      <c r="C262" t="s">
+        <v>15</v>
+      </c>
+      <c r="D262" t="s">
+        <v>3</v>
+      </c>
+      <c r="E262" t="s">
+        <v>14</v>
+      </c>
+      <c r="F262" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A263" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+      <c r="C263" t="s">
+        <v>15</v>
+      </c>
+      <c r="D263" t="s">
+        <v>3</v>
+      </c>
+      <c r="E263" t="s">
+        <v>14</v>
+      </c>
+      <c r="F263" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A264" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+      <c r="C264" t="s">
+        <v>15</v>
+      </c>
+      <c r="D264" t="s">
+        <v>3</v>
+      </c>
+      <c r="E264" t="s">
+        <v>14</v>
+      </c>
+      <c r="F264" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A265" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+      <c r="C265" t="s">
+        <v>15</v>
+      </c>
+      <c r="D265" t="s">
+        <v>3</v>
+      </c>
+      <c r="E265" t="s">
+        <v>14</v>
+      </c>
+      <c r="F265" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A266" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+      <c r="C266" t="s">
+        <v>15</v>
+      </c>
+      <c r="D266" t="s">
+        <v>3</v>
+      </c>
+      <c r="E266" t="s">
+        <v>14</v>
+      </c>
+      <c r="F266" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E327F433-64CA-4C75-A0BC-FFEEC2922B0D}">
+  <dimension ref="A1:N203"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="A173" sqref="A173"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="69.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <f>1-0.27</f>
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="str">
+        <f>B1</f>
+        <v>market for battery capacity, Li-ion, LFP, stationary</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="str">
+        <f>B6</f>
+        <v>kilowatt hour</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="str">
+        <f>B5</f>
+        <v>battery capacity, Li-ion, LFP</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="255" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A255" s="4" t="s">
+      <c r="B11" s="7">
+        <f>1/(0.16*(1-27%))</f>
+        <v>8.5616438356164384</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11" s="7">
+        <f>B11</f>
+        <v>8.5616438356164384</v>
+      </c>
+      <c r="I11" s="7">
+        <f>1/(0.19*(1-27%))</f>
+        <v>7.2098053352559486</v>
+      </c>
+      <c r="J11" s="7">
+        <f>1/(0.14*(1-27%))</f>
+        <v>9.7847358121330714</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="7">
+        <f>-1*B11</f>
+        <v>-8.5616438356164384</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12" s="7">
+        <f>B12</f>
+        <v>-8.5616438356164384</v>
+      </c>
+      <c r="I12" s="7">
+        <f>-1/(0.14*(1-27%))</f>
+        <v>-9.7847358121330714</v>
+      </c>
+      <c r="J12" s="7">
+        <f>-1/(0.19*(1-27%))</f>
+        <v>-7.2098053352559486</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20">
+        <f>1-0.27</f>
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="str">
+        <f>B14</f>
+        <v>market for battery capacity, Li-ion, NMC111, stationary</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="str">
+        <f>B19</f>
+        <v>kilowatt hour</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="str">
+        <f>B18</f>
+        <v>battery capacity, Li-ion, NMC111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B255">
-        <v>0</v>
-      </c>
-      <c r="C255" t="s">
-        <v>15</v>
-      </c>
-      <c r="D255" t="s">
-        <v>3</v>
-      </c>
-      <c r="E255" t="s">
-        <v>14</v>
-      </c>
-      <c r="F255" t="s">
+      <c r="B24" s="3">
+        <f>1/(0.18*73%)</f>
+        <v>7.6103500761035017</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24" s="7">
+        <f>B24</f>
+        <v>7.6103500761035017</v>
+      </c>
+      <c r="I24" s="7">
+        <f>1/(0.19*73%)</f>
+        <v>7.2098053352559486</v>
+      </c>
+      <c r="J24" s="7">
+        <f>1/(0.14*73%)</f>
+        <v>9.7847358121330714</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="3">
+        <f>-1*B24</f>
+        <v>-7.6103500761035017</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25" s="7">
+        <f>B25</f>
+        <v>-7.6103500761035017</v>
+      </c>
+      <c r="I25" s="7">
+        <f>-1/(0.14*(1-27%))</f>
+        <v>-9.7847358121330714</v>
+      </c>
+      <c r="J25" s="7">
+        <f>-1/(0.19*73%)</f>
+        <v>-7.2098053352559486</v>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33">
+        <f>1-0.27</f>
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="str">
+        <f>B27</f>
+        <v>market for battery capacity, Li-ion, NMC523, stationary</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="str">
+        <f>B32</f>
+        <v>kilowatt hour</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="str">
+        <f>B31</f>
+        <v>battery capacity, Li-ion, NMC523</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="3">
+        <f>1/(0.2*73%)</f>
+        <v>6.8493150684931514</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37" s="7">
+        <f>B37</f>
+        <v>6.8493150684931514</v>
+      </c>
+      <c r="I37" s="3">
+        <f>1/(0.22*73%)</f>
+        <v>6.2266500622665006</v>
+      </c>
+      <c r="J37" s="3">
+        <f>1/(0.17*73%)</f>
+        <v>8.058017727639001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="3">
+        <f>-1*B37</f>
+        <v>-6.8493150684931514</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38" s="7">
+        <f>B38</f>
+        <v>-6.8493150684931514</v>
+      </c>
+      <c r="I38" s="3">
+        <f>-1/(0.17*73%)</f>
+        <v>-8.058017727639001</v>
+      </c>
+      <c r="J38" s="3">
+        <f>-1/(0.22*73%)</f>
+        <v>-6.2266500622665006</v>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="256" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A256" s="4" t="s">
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46">
+        <f>1-0.27</f>
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="str">
+        <f>B40</f>
+        <v>market for battery capacity, Li-ion, NMC622, stationary</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="str">
+        <f>B45</f>
+        <v>kilowatt hour</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" t="str">
+        <f>B44</f>
+        <v>battery capacity, Li-ion, NMC622</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="3">
+        <f>1/(0.24*73%)</f>
+        <v>5.7077625570776256</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50">
+        <v>5</v>
+      </c>
+      <c r="H50" s="7">
+        <f>B50</f>
+        <v>5.7077625570776256</v>
+      </c>
+      <c r="I50" s="3">
+        <f>1/(0.28*73%)</f>
+        <v>4.8923679060665357</v>
+      </c>
+      <c r="J50" s="3">
+        <f>1/(0.2*73%)</f>
+        <v>6.8493150684931514</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="3">
+        <f>-1*B50</f>
+        <v>-5.7077625570776256</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51">
+        <v>5</v>
+      </c>
+      <c r="H51" s="7">
+        <f>B51</f>
+        <v>-5.7077625570776256</v>
+      </c>
+      <c r="I51" s="3">
+        <f>-1/(0.2*73%)</f>
+        <v>-6.8493150684931514</v>
+      </c>
+      <c r="J51" s="3">
+        <f>-1/(0.28*73%)</f>
+        <v>-4.8923679060665357</v>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="3">
+        <f>(0.28*71%)</f>
+        <v>0.1988</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="str">
+        <f>B53</f>
+        <v>market for battery capacity, Li-ion, NMC811, stationary</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="str">
+        <f>B58</f>
+        <v>kilowatt hour</v>
+      </c>
+      <c r="D62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" t="str">
+        <f>B57</f>
+        <v>battery capacity, Li-ion, NMC811</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63" s="3">
+        <f>1/(0.28*71%)</f>
+        <v>5.0301810865191143</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" t="s">
+        <v>55</v>
+      </c>
+      <c r="G63">
+        <v>5</v>
+      </c>
+      <c r="H63" s="7">
+        <f>B63</f>
+        <v>5.0301810865191143</v>
+      </c>
+      <c r="I63" s="3">
+        <f>1/(0.34*71%)</f>
+        <v>4.1425020712510356</v>
+      </c>
+      <c r="J63" s="3">
+        <f>1/(0.24*71%)</f>
+        <v>5.868544600938967</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3">
+        <f>-1*B63</f>
+        <v>-5.0301810865191143</v>
+      </c>
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" t="s">
+        <v>64</v>
+      </c>
+      <c r="G64">
+        <v>5</v>
+      </c>
+      <c r="H64" s="7">
+        <f>B64</f>
+        <v>-5.0301810865191143</v>
+      </c>
+      <c r="I64" s="3">
+        <f>-1/(0.24*71%)</f>
+        <v>-5.868544600938967</v>
+      </c>
+      <c r="J64" s="3">
+        <f>-1/(0.34*71%)</f>
+        <v>-4.1425020712510356</v>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="66" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>57</v>
+      </c>
+      <c r="B72">
+        <f>1-0.29</f>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="str">
+        <f>B66</f>
+        <v>market for battery capacity, Li-ion, NMC955, stationary</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" t="str">
+        <f>B71</f>
+        <v>kilowatt hour</v>
+      </c>
+      <c r="D75" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" t="str">
+        <f>B70</f>
+        <v>battery capacity, Li-ion, NMC955</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="3">
+        <f>1/(0.34*71%)</f>
+        <v>4.1425020712510356</v>
+      </c>
+      <c r="C76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" t="s">
+        <v>81</v>
+      </c>
+      <c r="G76">
+        <v>5</v>
+      </c>
+      <c r="H76" s="7">
+        <f>B76</f>
+        <v>4.1425020712510356</v>
+      </c>
+      <c r="I76" s="3">
+        <f>1/(0.38*71%)</f>
+        <v>3.7064492216456637</v>
+      </c>
+      <c r="J76" s="3">
+        <f>1/(0.3*71%)</f>
+        <v>4.694835680751174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>63</v>
+      </c>
+      <c r="B77" s="3">
+        <f>-1*B76</f>
+        <v>-4.1425020712510356</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" t="s">
+        <v>64</v>
+      </c>
+      <c r="G77">
+        <v>5</v>
+      </c>
+      <c r="H77" s="7">
+        <f>B77</f>
+        <v>-4.1425020712510356</v>
+      </c>
+      <c r="I77" s="3">
+        <f>-1/(0.3*71%)</f>
+        <v>-4.694835680751174</v>
+      </c>
+      <c r="J77" s="3">
+        <f>-1/(0.38*71%)</f>
+        <v>-3.7064492216456637</v>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="80" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" t="s">
+        <v>123</v>
+      </c>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>57</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="str">
+        <f>B80</f>
+        <v>market for battery capacity, redox-flow, Vanadium, stationary</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" t="str">
+        <f>B85</f>
+        <v>kilowatt hour</v>
+      </c>
+      <c r="D89" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" t="str">
+        <f>B84</f>
+        <v>battery capacity, redox-flow, Vanadium</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>104</v>
+      </c>
+      <c r="B90" s="3">
+        <f>1/(0.0194)</f>
+        <v>51.546391752577321</v>
+      </c>
+      <c r="C90" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" t="s">
+        <v>118</v>
+      </c>
+      <c r="G90">
+        <v>5</v>
+      </c>
+      <c r="H90" s="7">
+        <f>B90</f>
+        <v>51.546391752577321</v>
+      </c>
+      <c r="I90" s="3">
+        <f>1/(0.02)</f>
+        <v>50</v>
+      </c>
+      <c r="J90" s="3">
+        <f>1/(0.06)</f>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>105</v>
+      </c>
+      <c r="B91" s="3">
+        <f>-1*B90</f>
+        <v>-51.546391752577321</v>
+      </c>
+      <c r="C91" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" t="s">
+        <v>106</v>
+      </c>
+      <c r="G91">
+        <v>5</v>
+      </c>
+      <c r="H91" s="7">
+        <f>B91</f>
+        <v>-51.546391752577321</v>
+      </c>
+      <c r="I91" s="3">
+        <f>-1/(0.06)</f>
+        <v>-16.666666666666668</v>
+      </c>
+      <c r="J91" s="3">
+        <f>-1/(0.02)</f>
+        <v>-50</v>
+      </c>
+      <c r="K91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B92" s="3"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B93" s="3"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+    </row>
+    <row r="94" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" t="s">
+        <v>109</v>
+      </c>
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>57</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="str">
+        <f>B94</f>
+        <v>market for battery capacity, lead acid, rechargeable, stationary</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103" t="str">
+        <f>B99</f>
+        <v>kilowatt hour</v>
+      </c>
+      <c r="D103" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" t="str">
+        <f>B98</f>
+        <v>battery capacity, lead acid</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104" s="3">
+        <f>1/0.03</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="C104" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" t="s">
+        <v>111</v>
+      </c>
+      <c r="G104">
+        <v>5</v>
+      </c>
+      <c r="H104" s="7">
+        <f>B104</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="I104" s="3">
+        <f>1/(0.027)</f>
+        <v>37.037037037037038</v>
+      </c>
+      <c r="J104" s="3">
+        <f>1/(0.032)</f>
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>112</v>
+      </c>
+      <c r="B105" s="3">
+        <f>-1*B104</f>
+        <v>-33.333333333333336</v>
+      </c>
+      <c r="C105" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" t="s">
+        <v>3</v>
+      </c>
+      <c r="E105" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" t="s">
+        <v>113</v>
+      </c>
+      <c r="G105">
+        <v>5</v>
+      </c>
+      <c r="H105" s="7">
+        <f>B105</f>
+        <v>-33.333333333333336</v>
+      </c>
+      <c r="I105" s="3">
+        <f>-J104</f>
+        <v>-31.25</v>
+      </c>
+      <c r="J105" s="3">
+        <f>-I104</f>
+        <v>-37.037037037037038</v>
+      </c>
+      <c r="K105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B106" s="3"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+    </row>
+    <row r="108" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" t="s">
+        <v>49</v>
+      </c>
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>57</v>
+      </c>
+      <c r="B114">
+        <f>1-0.25</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="str">
+        <f>B108</f>
+        <v>market for battery capacity, Sodium-ion, SiB, stationary</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117" t="str">
+        <f>B113</f>
+        <v>kilowatt hour</v>
+      </c>
+      <c r="D117" t="s">
+        <v>3</v>
+      </c>
+      <c r="E117" t="s">
+        <v>13</v>
+      </c>
+      <c r="F117" t="str">
+        <f>B112</f>
+        <v>battery capacity, Sodium-ion, SiB</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>47</v>
+      </c>
+      <c r="B118" s="3">
+        <f>1/(0.16*75%)</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="C118" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" t="s">
+        <v>3</v>
+      </c>
+      <c r="E118" t="s">
+        <v>14</v>
+      </c>
+      <c r="F118" t="s">
+        <v>48</v>
+      </c>
+      <c r="G118">
+        <v>5</v>
+      </c>
+      <c r="H118" s="7">
+        <f>B118</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="I118" s="3">
+        <f>1/(0.22*75%)</f>
+        <v>6.0606060606060606</v>
+      </c>
+      <c r="J118" s="3">
+        <f>1/(0.16*75%)</f>
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>63</v>
+      </c>
+      <c r="B119" s="3">
+        <f>-1*B118</f>
+        <v>-8.3333333333333339</v>
+      </c>
+      <c r="C119" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119" t="s">
+        <v>3</v>
+      </c>
+      <c r="E119" t="s">
+        <v>14</v>
+      </c>
+      <c r="F119" t="s">
+        <v>64</v>
+      </c>
+      <c r="G119">
+        <v>5</v>
+      </c>
+      <c r="H119" s="7">
+        <f>B119</f>
+        <v>-8.3333333333333339</v>
+      </c>
+      <c r="I119" s="3">
+        <f>-1/(0.16*75%)</f>
+        <v>-8.3333333333333339</v>
+      </c>
+      <c r="J119" s="3">
+        <f>-1/(0.22*75%)</f>
+        <v>-6.0606060606060606</v>
+      </c>
+      <c r="K119" t="b">
+        <v>1</v>
+      </c>
+      <c r="M119" s="3"/>
+      <c r="N119" s="3"/>
+    </row>
+    <row r="121" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>1</v>
+      </c>
+      <c r="B122" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="str">
+        <f>B121</f>
+        <v>market for battery capacity, Sodium-Nickel-Chloride, Na-NiCl, stationary</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" t="str">
+        <f>B123</f>
+        <v>GLO</v>
+      </c>
+      <c r="E130" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" t="str">
+        <f>B125</f>
+        <v>battery capacity, Na-NiCl</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>50</v>
+      </c>
+      <c r="B131" s="3">
+        <f>1/0.116</f>
+        <v>8.6206896551724128</v>
+      </c>
+      <c r="C131" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131" t="s">
+        <v>3</v>
+      </c>
+      <c r="E131" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" t="s">
+        <v>51</v>
+      </c>
+      <c r="G131">
+        <v>5</v>
+      </c>
+      <c r="H131" s="7">
+        <f>B131</f>
+        <v>8.6206896551724128</v>
+      </c>
+      <c r="I131" s="7">
+        <f>B131*0.75</f>
+        <v>6.4655172413793096</v>
+      </c>
+      <c r="J131" s="7">
+        <f>B131*1.25</f>
+        <v>10.775862068965516</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>63</v>
+      </c>
+      <c r="B132" s="3">
+        <f>-1*B131</f>
+        <v>-8.6206896551724128</v>
+      </c>
+      <c r="C132" t="s">
+        <v>7</v>
+      </c>
+      <c r="D132" t="s">
+        <v>3</v>
+      </c>
+      <c r="E132" t="s">
+        <v>14</v>
+      </c>
+      <c r="F132" t="s">
+        <v>64</v>
+      </c>
+      <c r="G132">
+        <v>5</v>
+      </c>
+      <c r="H132" s="7">
+        <f>B132</f>
+        <v>-8.6206896551724128</v>
+      </c>
+      <c r="I132" s="7">
+        <f>B132*1.25</f>
+        <v>-10.775862068965516</v>
+      </c>
+      <c r="J132" s="7">
+        <f>B132*0.75</f>
+        <v>-6.4655172413793096</v>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B133" s="3"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="7"/>
+      <c r="J133" s="7"/>
+    </row>
+    <row r="135" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>1</v>
+      </c>
+      <c r="B136" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>2</v>
+      </c>
+      <c r="B137" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>6</v>
+      </c>
+      <c r="B140" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" t="s">
+        <v>92</v>
+      </c>
+      <c r="C141"/>
+      <c r="D141"/>
+      <c r="E141"/>
+      <c r="F141"/>
+      <c r="G141"/>
+      <c r="H141"/>
+      <c r="I141"/>
+      <c r="J141"/>
+      <c r="K141"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" t="str">
+        <f>B135</f>
+        <v>market for battery capacity, stationary (CONT scenario)</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" t="s">
+        <v>3</v>
+      </c>
+      <c r="E144" t="s">
+        <v>13</v>
+      </c>
+      <c r="F144" t="s">
+        <v>35</v>
+      </c>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+    </row>
+    <row r="145" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" t="s">
+        <v>3</v>
+      </c>
+      <c r="E145" t="s">
+        <v>14</v>
+      </c>
+      <c r="F145" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" t="s">
+        <v>3</v>
+      </c>
+      <c r="E146" t="s">
+        <v>14</v>
+      </c>
+      <c r="F146" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147" t="s">
+        <v>3</v>
+      </c>
+      <c r="E147" t="s">
+        <v>14</v>
+      </c>
+      <c r="F147" t="s">
         <v>75</v>
       </c>
-      <c r="B256">
-        <v>0</v>
-      </c>
-      <c r="C256" t="s">
-        <v>15</v>
-      </c>
-      <c r="D256" t="s">
-        <v>3</v>
-      </c>
-      <c r="E256" t="s">
-        <v>14</v>
-      </c>
-      <c r="F256" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A257" s="4" t="s">
+    </row>
+    <row r="148" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148" t="s">
+        <v>3</v>
+      </c>
+      <c r="E148" t="s">
+        <v>14</v>
+      </c>
+      <c r="F148" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A149" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" t="s">
+        <v>3</v>
+      </c>
+      <c r="E149" t="s">
+        <v>14</v>
+      </c>
+      <c r="F149" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" t="s">
+        <v>3</v>
+      </c>
+      <c r="E150" t="s">
+        <v>14</v>
+      </c>
+      <c r="F150" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A151" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" t="s">
+        <v>3</v>
+      </c>
+      <c r="E151" t="s">
+        <v>14</v>
+      </c>
+      <c r="F151" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" t="s">
+        <v>3</v>
+      </c>
+      <c r="E152" t="s">
+        <v>14</v>
+      </c>
+      <c r="F152" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B153" s="6">
+        <v>0</v>
+      </c>
+      <c r="C153" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" t="s">
+        <v>3</v>
+      </c>
+      <c r="E153" t="s">
+        <v>14</v>
+      </c>
+      <c r="F153" t="s">
+        <v>109</v>
+      </c>
+      <c r="G153" s="6"/>
+      <c r="H153" s="6"/>
+      <c r="I153" s="6"/>
+      <c r="J153" s="6"/>
+      <c r="K153" s="6"/>
+    </row>
+    <row r="154" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" t="s">
+        <v>3</v>
+      </c>
+      <c r="E154" t="s">
+        <v>14</v>
+      </c>
+      <c r="F154" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>1</v>
+      </c>
+      <c r="B157" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>2</v>
+      </c>
+      <c r="B158" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>6</v>
+      </c>
+      <c r="B161" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>8</v>
+      </c>
+      <c r="B162" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" t="str">
+        <f>B156</f>
+        <v>market for battery capacity, stationary (TC scenario)</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165" t="s">
+        <v>15</v>
+      </c>
+      <c r="D165" t="s">
+        <v>3</v>
+      </c>
+      <c r="E165" t="s">
+        <v>13</v>
+      </c>
+      <c r="F165" t="s">
+        <v>35</v>
+      </c>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+    </row>
+    <row r="166" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A166" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166" t="s">
+        <v>15</v>
+      </c>
+      <c r="D166" t="s">
+        <v>3</v>
+      </c>
+      <c r="E166" t="s">
+        <v>14</v>
+      </c>
+      <c r="F166" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A167" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167" t="s">
+        <v>15</v>
+      </c>
+      <c r="D167" t="s">
+        <v>3</v>
+      </c>
+      <c r="E167" t="s">
+        <v>14</v>
+      </c>
+      <c r="F167" t="s">
         <v>24</v>
       </c>
-      <c r="B257">
-        <v>0</v>
-      </c>
-      <c r="C257" t="s">
-        <v>15</v>
-      </c>
-      <c r="D257" t="s">
-        <v>3</v>
-      </c>
-      <c r="E257" t="s">
-        <v>14</v>
-      </c>
-      <c r="F257" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A258" s="4" t="s">
+    </row>
+    <row r="168" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A168" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168" t="s">
+        <v>15</v>
+      </c>
+      <c r="D168" t="s">
+        <v>3</v>
+      </c>
+      <c r="E168" t="s">
+        <v>14</v>
+      </c>
+      <c r="F168" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A169" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169" t="s">
+        <v>15</v>
+      </c>
+      <c r="D169" t="s">
+        <v>3</v>
+      </c>
+      <c r="E169" t="s">
+        <v>14</v>
+      </c>
+      <c r="F169" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A170" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170" t="s">
+        <v>15</v>
+      </c>
+      <c r="D170" t="s">
+        <v>3</v>
+      </c>
+      <c r="E170" t="s">
+        <v>14</v>
+      </c>
+      <c r="F170" t="s">
         <v>27</v>
       </c>
-      <c r="B258">
-        <v>0</v>
-      </c>
-      <c r="C258" t="s">
-        <v>15</v>
-      </c>
-      <c r="D258" t="s">
-        <v>3</v>
-      </c>
-      <c r="E258" t="s">
-        <v>14</v>
-      </c>
-      <c r="F258" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A259" s="4" t="s">
+    </row>
+    <row r="171" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A171" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171" t="s">
+        <v>15</v>
+      </c>
+      <c r="D171" t="s">
+        <v>3</v>
+      </c>
+      <c r="E171" t="s">
+        <v>14</v>
+      </c>
+      <c r="F171" t="s">
         <v>79</v>
       </c>
-      <c r="B259">
-        <v>0</v>
-      </c>
-      <c r="C259" t="s">
-        <v>15</v>
-      </c>
-      <c r="D259" t="s">
-        <v>3</v>
-      </c>
-      <c r="E259" t="s">
-        <v>14</v>
-      </c>
-      <c r="F259" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A260" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B260">
-        <v>0</v>
-      </c>
-      <c r="C260" t="s">
-        <v>15</v>
-      </c>
-      <c r="D260" t="s">
-        <v>3</v>
-      </c>
-      <c r="E260" t="s">
-        <v>14</v>
-      </c>
-      <c r="F260" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A261" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B261">
-        <v>0</v>
-      </c>
-      <c r="C261" t="s">
-        <v>15</v>
-      </c>
-      <c r="D261" t="s">
-        <v>3</v>
-      </c>
-      <c r="E261" t="s">
-        <v>14</v>
-      </c>
-      <c r="F261" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A262" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B262">
-        <v>0</v>
-      </c>
-      <c r="C262" t="s">
-        <v>15</v>
-      </c>
-      <c r="D262" t="s">
-        <v>3</v>
-      </c>
-      <c r="E262" t="s">
-        <v>14</v>
-      </c>
-      <c r="F262" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A263" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B263">
-        <v>0</v>
-      </c>
-      <c r="C263" t="s">
-        <v>15</v>
-      </c>
-      <c r="D263" t="s">
-        <v>3</v>
-      </c>
-      <c r="E263" t="s">
-        <v>14</v>
-      </c>
-      <c r="F263" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A264" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B264">
-        <v>0</v>
-      </c>
-      <c r="C264" t="s">
-        <v>15</v>
-      </c>
-      <c r="D264" t="s">
-        <v>3</v>
-      </c>
-      <c r="E264" t="s">
-        <v>14</v>
-      </c>
-      <c r="F264" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A265" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B265">
-        <v>0</v>
-      </c>
-      <c r="C265" t="s">
-        <v>15</v>
-      </c>
-      <c r="D265" t="s">
-        <v>3</v>
-      </c>
-      <c r="E265" t="s">
-        <v>14</v>
-      </c>
-      <c r="F265" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A266" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B266">
-        <v>0</v>
-      </c>
-      <c r="C266" t="s">
-        <v>15</v>
-      </c>
-      <c r="D266" t="s">
-        <v>3</v>
-      </c>
-      <c r="E266" t="s">
-        <v>14</v>
-      </c>
-      <c r="F266" t="s">
-        <v>63</v>
-      </c>
+    </row>
+    <row r="172" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A172" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172" t="s">
+        <v>15</v>
+      </c>
+      <c r="D172" t="s">
+        <v>3</v>
+      </c>
+      <c r="E172" t="s">
+        <v>14</v>
+      </c>
+      <c r="F172" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A173" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173" t="s">
+        <v>15</v>
+      </c>
+      <c r="D173" t="s">
+        <v>3</v>
+      </c>
+      <c r="E173" t="s">
+        <v>14</v>
+      </c>
+      <c r="F173" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A174" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B174" s="6">
+        <v>0</v>
+      </c>
+      <c r="C174" t="s">
+        <v>15</v>
+      </c>
+      <c r="D174" t="s">
+        <v>3</v>
+      </c>
+      <c r="E174" t="s">
+        <v>14</v>
+      </c>
+      <c r="F174" t="s">
+        <v>109</v>
+      </c>
+      <c r="G174" s="6"/>
+      <c r="H174" s="6"/>
+    </row>
+    <row r="175" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A175" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175" t="s">
+        <v>15</v>
+      </c>
+      <c r="D175" t="s">
+        <v>3</v>
+      </c>
+      <c r="E175" t="s">
+        <v>14</v>
+      </c>
+      <c r="F175" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A177" s="4"/>
+    </row>
+    <row r="178" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A178" s="4"/>
+    </row>
+    <row r="179" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A179" s="5"/>
+    </row>
+    <row r="181" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A181" s="2"/>
+      <c r="B181" s="2"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+      <c r="G189" s="1"/>
+      <c r="H189" s="1"/>
+      <c r="I189" s="1"/>
+      <c r="J189" s="1"/>
+      <c r="K189" s="1"/>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G190" s="1"/>
+      <c r="H190" s="1"/>
+      <c r="I190" s="1"/>
+      <c r="J190" s="1"/>
+      <c r="K190" s="1"/>
+    </row>
+    <row r="191" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A191" s="6"/>
+    </row>
+    <row r="192" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A192" s="6"/>
+    </row>
+    <row r="193" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A193" s="6"/>
+    </row>
+    <row r="194" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A194" s="6"/>
+    </row>
+    <row r="195" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A195" s="6"/>
+    </row>
+    <row r="196" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A196" s="6"/>
+    </row>
+    <row r="197" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A197" s="6"/>
+    </row>
+    <row r="198" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A198" s="6"/>
+    </row>
+    <row r="199" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A199" s="6"/>
+      <c r="B199" s="6"/>
+      <c r="G199" s="6"/>
+    </row>
+    <row r="200" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A200" s="6"/>
+    </row>
+    <row r="201" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A201" s="4"/>
+    </row>
+    <row r="202" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A202" s="4"/>
+    </row>
+    <row r="203" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A203" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N266" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-battery-capacity.xlsx
+++ b/premise/data/additional_inventories/lci-battery-capacity.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahnme_a\PycharmProjects\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE1F666-85A0-49BE-B63E-4B717A270656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CBD25A-E903-2945-8CE6-B8E5BCF92E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Battery - NMC" sheetId="1" r:id="rId1"/>
     <sheet name="Battery - stationary" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Battery - NMC'!$A$1:$N$266</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Battery - stationary'!$A$1:$N$204</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="111">
   <si>
     <t>Activity</t>
   </si>
@@ -89,9 +93,6 @@
     <t>market for battery capacity, Li-ion, LFP</t>
   </si>
   <si>
-    <t>battery capacity, Li-ion, LFP</t>
-  </si>
-  <si>
     <t>market for battery, Li-ion, LFP, rechargeable, prismatic</t>
   </si>
   <si>
@@ -110,18 +111,9 @@
     <t>market for battery capacity, Li-ion, NMC622</t>
   </si>
   <si>
-    <t>battery capacity, Li-ion, NMC111</t>
-  </si>
-  <si>
-    <t>battery capacity, Li-ion, NMC622</t>
-  </si>
-  <si>
     <t>market for battery capacity, Li-ion, NMC811</t>
   </si>
   <si>
-    <t>battery capacity, Li-ion, NMC811</t>
-  </si>
-  <si>
     <t>market for battery, Li-ion, NMC811, rechargeable, prismatic</t>
   </si>
   <si>
@@ -134,24 +126,15 @@
     <t>market for battery capacity, Li-ion, NCA</t>
   </si>
   <si>
-    <t>battery capacity, Li-ion, NCA</t>
-  </si>
-  <si>
     <t>market for battery, Li-ion, NCA, rechargeable, prismatic</t>
   </si>
   <si>
     <t>battery, Li-ion, NCA, rechargeable, prismatic</t>
   </si>
   <si>
-    <t>battery capacity</t>
-  </si>
-  <si>
     <t>market for battery capacity, Li-ion, LTO</t>
   </si>
   <si>
-    <t>battery capacity, Li-ion, LTO</t>
-  </si>
-  <si>
     <t>market for battery, Li-ion, LTO</t>
   </si>
   <si>
@@ -167,9 +150,6 @@
     <t>market for battery capacity, Li-ion, Li-O2</t>
   </si>
   <si>
-    <t>battery capacity, Li-ion, Li-O2</t>
-  </si>
-  <si>
     <t>market for battery, Li-oxygen, Li-O2</t>
   </si>
   <si>
@@ -185,9 +165,6 @@
     <t>battery, SiB</t>
   </si>
   <si>
-    <t>battery capacity, Sodium-ion, SiB</t>
-  </si>
-  <si>
     <t>market for battery, NaCl</t>
   </si>
   <si>
@@ -224,9 +201,6 @@
     <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion LMO battery. Specific energy density in 2020: 0.13 kWh/kg cell. Battery management (BoP) mass share: 13%. Battery energy density in 2020: 0.114 kWh/kg battery. Battery mass per kWh: 18.4 kg. Lifetime: 10'000 cycles. Source for parameters: Life cycle assessment of battery electric buses. Transportation Research Part D: Transport and Environment. Linda Ager-Wick Ellingsen, Rebecca Jayne Thorne, Julia Wind, Erik Figenbaum, Mia Romare and Anders Nordelöf.</t>
   </si>
   <si>
-    <t>battery capacity, Na-NiCl</t>
-  </si>
-  <si>
     <t>market for used Li-ion battery</t>
   </si>
   <si>
@@ -236,15 +210,9 @@
     <t>market for battery capacity, Li-ion, LiMn2O4</t>
   </si>
   <si>
-    <t>battery capacity, Li-ion, LiMn2O4</t>
-  </si>
-  <si>
     <t>market for battery capacity, Li-sulfur, Li-S</t>
   </si>
   <si>
-    <t>battery capacity, Li-sulfur, Li-S</t>
-  </si>
-  <si>
     <t>uncertainty type</t>
   </si>
   <si>
@@ -263,9 +231,6 @@
     <t>market for battery capacity, Li-ion, NMC523</t>
   </si>
   <si>
-    <t>battery capacity, Li-ion, NMC523</t>
-  </si>
-  <si>
     <t>market for battery, Li-ion, NMC523</t>
   </si>
   <si>
@@ -275,9 +240,6 @@
     <t>market for battery capacity, Li-ion, NMC955</t>
   </si>
   <si>
-    <t>battery capacity, Li-ion, NMC955</t>
-  </si>
-  <si>
     <t>market for battery, Li-ion, NMC955</t>
   </si>
   <si>
@@ -365,9 +327,6 @@
     <t>market for battery capacity, lead acid, rechargeable, stationary</t>
   </si>
   <si>
-    <t>battery capacity, lead acid</t>
-  </si>
-  <si>
     <t>market for battery, lead acid, rechargeable, stationary</t>
   </si>
   <si>
@@ -404,10 +363,16 @@
     <t>market for battery capacity, redox-flow, Vanadium, stationary</t>
   </si>
   <si>
-    <t>This dataset provides a market average for 1 kWh of battery gross capacity (NOT net). It is based on shares provided by Schlichenmaier &amp; Naegler (2022) https://doi.org/10.1016/j.egyr.2022.11.025</t>
-  </si>
-  <si>
-    <t>battery capacity, redox-flow, Vanadium</t>
+    <t>Market shares provided by Schlichenmaier &amp; Naegler (2022) https://doi.org/10.1016/j.egyr.2022.11.025</t>
+  </si>
+  <si>
+    <t>This dataset provides a market average for 1 kWh of battery gross capacity (NOT net). It is based on shares provided by Schlichenmaier &amp; Naegler (2022) https://doi.org/10.1016/j.egyr.2022.11.025. Includes charging and discharging losses of 33%.</t>
+  </si>
+  <si>
+    <t>electricity, low voltage</t>
+  </si>
+  <si>
+    <t>market group for electricity, low voltage</t>
   </si>
 </sst>
 </file>
@@ -417,9 +382,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -489,18 +461,19 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,25 +758,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N266"/>
   <sheetViews>
-    <sheetView topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="F147" sqref="F147"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="D176" sqref="D176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="46.5" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -811,15 +784,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -827,7 +800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -835,15 +808,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -852,22 +825,22 @@
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <f>1-0.27</f>
         <v>0.73</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="7"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -887,22 +860,22 @@
         <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="str">
         <f>B3</f>
         <v>market for battery capacity, Li-ion, LFP</v>
@@ -922,12 +895,12 @@
       </c>
       <c r="F12" t="str">
         <f>B7</f>
-        <v>battery capacity, Li-ion, LFP</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>electricity, low voltage</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="7">
         <f>1/(0.16*(1-27%))</f>
@@ -943,7 +916,7 @@
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -961,9 +934,9 @@
         <v>9.7847358121330714</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B14" s="7">
         <f>-1*B13</f>
@@ -979,7 +952,7 @@
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -1002,23 +975,23 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1026,7 +999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1034,15 +1007,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1050,22 +1023,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B22">
         <f>1-0.27</f>
         <v>0.73</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -1085,22 +1058,22 @@
         <v>5</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="str">
         <f>B16</f>
         <v>market for battery capacity, Li-ion, NMC111</v>
@@ -1120,12 +1093,12 @@
       </c>
       <c r="F25" t="str">
         <f>B20</f>
-        <v>battery capacity, Li-ion, NMC111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <v>electricity, low voltage</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="3">
         <f>1/(0.18*73%)</f>
@@ -1141,7 +1114,7 @@
         <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G26">
         <v>5</v>
@@ -1159,9 +1132,9 @@
         <v>9.7847358121330714</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B27" s="3">
         <f>-1*B26</f>
@@ -1177,7 +1150,7 @@
         <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G27">
         <v>5</v>
@@ -1200,23 +1173,23 @@
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1224,7 +1197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1232,15 +1205,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1248,22 +1221,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B35">
         <f>1-0.27</f>
         <v>0.73</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
@@ -1283,22 +1256,22 @@
         <v>5</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="str">
         <f>B29</f>
         <v>market for battery capacity, Li-ion, NMC523</v>
@@ -1318,12 +1291,12 @@
       </c>
       <c r="F38" t="str">
         <f>B33</f>
-        <v>battery capacity, Li-ion, NMC523</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+        <v>electricity, low voltage</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B39" s="3">
         <f>1/(0.2*73%)</f>
@@ -1339,7 +1312,7 @@
         <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="G39">
         <v>5</v>
@@ -1357,9 +1330,9 @@
         <v>8.058017727639001</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B40" s="3">
         <f>-1*B39</f>
@@ -1375,7 +1348,7 @@
         <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G40">
         <v>5</v>
@@ -1398,23 +1371,23 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -1422,7 +1395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1430,16 +1403,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -1448,22 +1421,22 @@
       </c>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <f>1-0.27</f>
         <v>0.73</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B49" s="3"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>10</v>
       </c>
@@ -1483,22 +1456,22 @@
         <v>5</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="str">
         <f>B42</f>
         <v>market for battery capacity, Li-ion, NMC622</v>
@@ -1518,12 +1491,12 @@
       </c>
       <c r="F51" t="str">
         <f>B46</f>
-        <v>battery capacity, Li-ion, NMC622</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+        <v>electricity, low voltage</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B52" s="3">
         <f>1/(0.24*73%)</f>
@@ -1539,7 +1512,7 @@
         <v>14</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G52">
         <v>5</v>
@@ -1557,9 +1530,9 @@
         <v>6.8493150684931514</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B53" s="3">
         <f>-1*B52</f>
@@ -1575,7 +1548,7 @@
         <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G53">
         <v>5</v>
@@ -1598,23 +1571,23 @@
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
     </row>
-    <row r="55" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -1622,7 +1595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -1630,15 +1603,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -1647,12 +1620,12 @@
       </c>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>9</v>
       </c>
@@ -1661,7 +1634,7 @@
         <v>0.1988</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>10</v>
       </c>
@@ -1681,22 +1654,22 @@
         <v>5</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="str">
         <f>B55</f>
         <v>market for battery capacity, Li-ion, NMC811</v>
@@ -1716,12 +1689,12 @@
       </c>
       <c r="F64" t="str">
         <f>B59</f>
-        <v>battery capacity, Li-ion, NMC811</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+        <v>electricity, low voltage</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B65" s="3">
         <f>1/(0.28*71%)</f>
@@ -1737,7 +1710,7 @@
         <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G65">
         <v>5</v>
@@ -1755,9 +1728,9 @@
         <v>5.868544600938967</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B66" s="3">
         <f>-1*B65</f>
@@ -1773,7 +1746,7 @@
         <v>14</v>
       </c>
       <c r="F66" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G66">
         <v>5</v>
@@ -1796,23 +1769,23 @@
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
     </row>
-    <row r="68" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -1820,7 +1793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -1828,15 +1801,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -1845,21 +1818,21 @@
       </c>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B74">
         <f>1-0.29</f>
         <v>0.71</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>10</v>
       </c>
@@ -1879,22 +1852,22 @@
         <v>5</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="str">
         <f>B68</f>
         <v>market for battery capacity, Li-ion, NMC955</v>
@@ -1914,12 +1887,12 @@
       </c>
       <c r="F77" t="str">
         <f>B72</f>
-        <v>battery capacity, Li-ion, NMC955</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+        <v>electricity, low voltage</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B78" s="3">
         <f>1/(0.34*71%)</f>
@@ -1935,7 +1908,7 @@
         <v>14</v>
       </c>
       <c r="F78" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G78">
         <v>5</v>
@@ -1953,9 +1926,9 @@
         <v>4.694835680751174</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B79" s="3">
         <f>-1*B78</f>
@@ -1971,7 +1944,7 @@
         <v>14</v>
       </c>
       <c r="F79" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G79">
         <v>5</v>
@@ -1994,23 +1967,23 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
     </row>
-    <row r="81" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>2</v>
       </c>
@@ -2018,7 +1991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -2026,15 +1999,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -2043,21 +2016,21 @@
       </c>
       <c r="D86" s="3"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B87">
         <f>1-0.293</f>
         <v>0.70700000000000007</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>10</v>
       </c>
@@ -2077,22 +2050,22 @@
         <v>5</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="str">
         <f>B81</f>
         <v>market for battery capacity, Li-ion, NCA</v>
@@ -2112,12 +2085,12 @@
       </c>
       <c r="F90" t="str">
         <f>B85</f>
-        <v>battery capacity, Li-ion, NCA</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+        <v>electricity, low voltage</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B91" s="3">
         <f>1/(0.28*71%)</f>
@@ -2133,7 +2106,7 @@
         <v>14</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G91">
         <v>5</v>
@@ -2151,9 +2124,9 @@
         <v>5.868544600938967</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B92" s="3">
         <f>-1*B91</f>
@@ -2169,7 +2142,7 @@
         <v>14</v>
       </c>
       <c r="F92" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G92">
         <v>5</v>
@@ -2192,23 +2165,23 @@
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
     </row>
-    <row r="94" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>2</v>
       </c>
@@ -2216,7 +2189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -2224,16 +2197,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -2241,21 +2214,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B100">
         <f>1-0.36</f>
         <v>0.64</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>10</v>
       </c>
@@ -2275,22 +2248,22 @@
         <v>5</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="str">
         <f>B94</f>
         <v>market for battery capacity, Li-ion, LTO</v>
@@ -2310,12 +2283,12 @@
       </c>
       <c r="F103" t="str">
         <f>B98</f>
-        <v>battery capacity, Li-ion, LTO</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+        <v>electricity, low voltage</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B104" s="3">
         <f>1/(0.085*64%)</f>
@@ -2331,7 +2304,7 @@
         <v>14</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G104">
         <v>5</v>
@@ -2349,9 +2322,9 @@
         <v>22.977941176470587</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B105" s="3">
         <f>-1*B104</f>
@@ -2367,7 +2340,7 @@
         <v>14</v>
       </c>
       <c r="F105" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G105">
         <v>5</v>
@@ -2390,23 +2363,23 @@
       <c r="M105" s="7"/>
       <c r="N105" s="7"/>
     </row>
-    <row r="107" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1</v>
       </c>
       <c r="B108" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>2</v>
       </c>
@@ -2414,7 +2387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>4</v>
       </c>
@@ -2422,15 +2395,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>5</v>
       </c>
       <c r="B111" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>6</v>
       </c>
@@ -2439,21 +2412,21 @@
       </c>
       <c r="E112" s="3"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B113">
         <f>1-0.13</f>
         <v>0.87</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>10</v>
       </c>
@@ -2473,22 +2446,22 @@
         <v>5</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="str">
         <f>B107</f>
         <v>market for battery capacity, Li-ion, LiMn2O4</v>
@@ -2508,12 +2481,12 @@
       </c>
       <c r="F116" t="str">
         <f>B111</f>
-        <v>battery capacity, Li-ion, LiMn2O4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+        <v>electricity, low voltage</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B117" s="3">
         <f>1/(32/280)</f>
@@ -2529,7 +2502,7 @@
         <v>14</v>
       </c>
       <c r="F117" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G117">
         <v>5</v>
@@ -2547,9 +2520,9 @@
         <v>10.9375</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B118" s="3">
         <f>-1*B117</f>
@@ -2565,7 +2538,7 @@
         <v>14</v>
       </c>
       <c r="F118" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G118">
         <v>5</v>
@@ -2588,23 +2561,23 @@
       <c r="M118" s="7"/>
       <c r="N118" s="7"/>
     </row>
-    <row r="120" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>1</v>
       </c>
       <c r="B121" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -2612,7 +2585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>4</v>
       </c>
@@ -2620,15 +2593,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>6</v>
       </c>
@@ -2637,21 +2610,21 @@
       </c>
       <c r="D125" s="3"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B126">
         <f>1-0.25</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>10</v>
       </c>
@@ -2671,22 +2644,22 @@
         <v>5</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="str">
         <f>B120</f>
         <v>market for battery capacity, Li-sulfur, Li-S</v>
@@ -2706,12 +2679,12 @@
       </c>
       <c r="F129" t="str">
         <f>B124</f>
-        <v>battery capacity, Li-sulfur, Li-S</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+        <v>electricity, low voltage</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B130" s="3">
         <f>1/(0.15*75%)</f>
@@ -2727,7 +2700,7 @@
         <v>14</v>
       </c>
       <c r="F130" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G130">
         <v>5</v>
@@ -2745,9 +2718,9 @@
         <v>9.5238095238095237</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B131" s="3">
         <f>-1*B130</f>
@@ -2763,7 +2736,7 @@
         <v>14</v>
       </c>
       <c r="F131" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G131">
         <v>5</v>
@@ -2786,23 +2759,23 @@
       <c r="M131" s="3"/>
       <c r="N131" s="3"/>
     </row>
-    <row r="133" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>1</v>
       </c>
       <c r="B134" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>2</v>
       </c>
@@ -2810,7 +2783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>4</v>
       </c>
@@ -2818,15 +2791,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>5</v>
       </c>
       <c r="B137" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>6</v>
       </c>
@@ -2834,21 +2807,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B139">
         <f>1-0.45</f>
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="140" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>10</v>
       </c>
@@ -2868,22 +2841,22 @@
         <v>5</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="str">
         <f>B133</f>
         <v>market for battery capacity, Li-ion, Li-O2</v>
@@ -2903,12 +2876,12 @@
       </c>
       <c r="F142" t="str">
         <f>B137</f>
-        <v>battery capacity, Li-ion, Li-O2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+        <v>electricity, low voltage</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B143" s="3">
         <f>1/0.198</f>
@@ -2924,7 +2897,7 @@
         <v>14</v>
       </c>
       <c r="F143" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G143">
         <v>5</v>
@@ -2942,9 +2915,9 @@
         <v>6.3131313131313131</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B144" s="3">
         <f>-1*B143</f>
@@ -2960,7 +2933,7 @@
         <v>14</v>
       </c>
       <c r="F144" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G144">
         <v>5</v>
@@ -2983,23 +2956,23 @@
       <c r="M144" s="7"/>
       <c r="N144" s="7"/>
     </row>
-    <row r="146" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>1</v>
       </c>
       <c r="B147" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>2</v>
       </c>
@@ -3007,7 +2980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>4</v>
       </c>
@@ -3015,16 +2988,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>5</v>
       </c>
       <c r="B150" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="E150" s="3"/>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -3032,21 +3005,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B152">
         <f>1-0.25</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="153" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>10</v>
       </c>
@@ -3066,22 +3039,22 @@
         <v>5</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="str">
         <f>B146</f>
         <v>market for battery capacity, Sodium-ion, SiB</v>
@@ -3101,12 +3074,12 @@
       </c>
       <c r="F155" t="str">
         <f>B150</f>
-        <v>battery capacity, Sodium-ion, SiB</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+        <v>electricity, low voltage</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B156" s="3">
         <f>1/(0.16*75%)</f>
@@ -3122,7 +3095,7 @@
         <v>14</v>
       </c>
       <c r="F156" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G156">
         <v>5</v>
@@ -3140,9 +3113,9 @@
         <v>8.3333333333333339</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B157" s="3">
         <f>-1*B156</f>
@@ -3158,7 +3131,7 @@
         <v>14</v>
       </c>
       <c r="F157" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G157">
         <v>5</v>
@@ -3181,23 +3154,23 @@
       <c r="M157" s="3"/>
       <c r="N157" s="3"/>
     </row>
-    <row r="159" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1</v>
       </c>
       <c r="B160" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>2</v>
       </c>
@@ -3205,7 +3178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -3213,15 +3186,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>5</v>
       </c>
       <c r="B163" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>6</v>
       </c>
@@ -3229,15 +3202,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>8</v>
       </c>
       <c r="B165" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>9</v>
       </c>
@@ -3248,7 +3221,7 @@
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>10</v>
       </c>
@@ -3268,22 +3241,22 @@
         <v>5</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="str">
         <f>B159</f>
         <v>market for battery capacity, Sodium-Nickel-Chloride, Na-NiCl</v>
@@ -3303,12 +3276,12 @@
       </c>
       <c r="F168" t="str">
         <f>B163</f>
-        <v>battery capacity, Na-NiCl</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+        <v>electricity, low voltage</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B169" s="3">
         <f>1/0.116</f>
@@ -3324,7 +3297,7 @@
         <v>14</v>
       </c>
       <c r="F169" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G169">
         <v>5</v>
@@ -3342,9 +3315,9 @@
         <v>10.775862068965516</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B170" s="3">
         <f>-1*B169</f>
@@ -3360,7 +3333,7 @@
         <v>14</v>
       </c>
       <c r="F170" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G170">
         <v>5</v>
@@ -3383,23 +3356,23 @@
       <c r="M170" s="7"/>
       <c r="N170" s="7"/>
     </row>
-    <row r="172" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>1</v>
       </c>
       <c r="B173" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>2</v>
       </c>
@@ -3407,7 +3380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>4</v>
       </c>
@@ -3415,15 +3388,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>5</v>
       </c>
       <c r="B176" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>6</v>
       </c>
@@ -3431,15 +3404,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>8</v>
       </c>
       <c r="B178" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>9</v>
       </c>
@@ -3450,7 +3423,7 @@
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>10</v>
       </c>
@@ -3475,7 +3448,7 @@
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" t="str">
         <f>B172</f>
         <v>market for battery capacity (MIX scenario)</v>
@@ -3493,7 +3466,7 @@
         <v>13</v>
       </c>
       <c r="F181" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
@@ -3501,7 +3474,7 @@
       <c r="J181" s="1"/>
       <c r="K181" s="1"/>
     </row>
-    <row r="182" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>16</v>
       </c>
@@ -3518,12 +3491,12 @@
         <v>14</v>
       </c>
       <c r="F182" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -3538,12 +3511,12 @@
         <v>14</v>
       </c>
       <c r="F183" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -3558,33 +3531,33 @@
         <v>14</v>
       </c>
       <c r="F184" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185" t="s">
+        <v>15</v>
+      </c>
+      <c r="D185" t="s">
+        <v>3</v>
+      </c>
+      <c r="E185" t="s">
+        <v>14</v>
+      </c>
+      <c r="F185" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A186" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B185">
-        <v>0</v>
-      </c>
-      <c r="C185" t="s">
-        <v>15</v>
-      </c>
-      <c r="D185" t="s">
-        <v>3</v>
-      </c>
-      <c r="E185" t="s">
-        <v>14</v>
-      </c>
-      <c r="F185" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A186" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="B186">
         <v>0</v>
       </c>
@@ -3598,33 +3571,33 @@
         <v>14</v>
       </c>
       <c r="F186" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A187" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187" t="s">
+        <v>15</v>
+      </c>
+      <c r="D187" t="s">
+        <v>3</v>
+      </c>
+      <c r="E187" t="s">
+        <v>14</v>
+      </c>
+      <c r="F187" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A188" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A187" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B187">
-        <v>0</v>
-      </c>
-      <c r="C187" t="s">
-        <v>15</v>
-      </c>
-      <c r="D187" t="s">
-        <v>3</v>
-      </c>
-      <c r="E187" t="s">
-        <v>14</v>
-      </c>
-      <c r="F187" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A188" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="B188">
         <v>0</v>
       </c>
@@ -3638,12 +3611,12 @@
         <v>14</v>
       </c>
       <c r="F188" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -3658,12 +3631,12 @@
         <v>14</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -3678,12 +3651,12 @@
         <v>14</v>
       </c>
       <c r="F190" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -3698,12 +3671,12 @@
         <v>14</v>
       </c>
       <c r="F191" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -3718,12 +3691,12 @@
         <v>14</v>
       </c>
       <c r="F192" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -3738,12 +3711,12 @@
         <v>14</v>
       </c>
       <c r="F193" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -3758,26 +3731,26 @@
         <v>14</v>
       </c>
       <c r="F194" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>1</v>
       </c>
       <c r="B197" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>2</v>
       </c>
@@ -3785,7 +3758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>4</v>
       </c>
@@ -3793,15 +3766,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>5</v>
       </c>
       <c r="B200" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>6</v>
       </c>
@@ -3809,15 +3782,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>9</v>
       </c>
@@ -3828,7 +3801,7 @@
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>10</v>
       </c>
@@ -3853,7 +3826,7 @@
       <c r="J204" s="1"/>
       <c r="K204" s="1"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" t="str">
         <f>B196</f>
         <v>market for battery capacity (LFP scenario)</v>
@@ -3871,7 +3844,7 @@
         <v>13</v>
       </c>
       <c r="F205" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
@@ -3879,7 +3852,7 @@
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
     </row>
-    <row r="206" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
         <v>16</v>
       </c>
@@ -3896,12 +3869,12 @@
         <v>14</v>
       </c>
       <c r="F206" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B207">
         <v>0</v>
@@ -3916,12 +3889,12 @@
         <v>14</v>
       </c>
       <c r="F207" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B208">
         <v>0</v>
@@ -3936,33 +3909,33 @@
         <v>14</v>
       </c>
       <c r="F208" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209" t="s">
+        <v>15</v>
+      </c>
+      <c r="D209" t="s">
+        <v>3</v>
+      </c>
+      <c r="E209" t="s">
+        <v>14</v>
+      </c>
+      <c r="F209" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A210" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B209">
-        <v>0</v>
-      </c>
-      <c r="C209" t="s">
-        <v>15</v>
-      </c>
-      <c r="D209" t="s">
-        <v>3</v>
-      </c>
-      <c r="E209" t="s">
-        <v>14</v>
-      </c>
-      <c r="F209" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A210" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="B210">
         <v>0</v>
       </c>
@@ -3976,33 +3949,33 @@
         <v>14</v>
       </c>
       <c r="F210" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A211" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="C211" t="s">
+        <v>15</v>
+      </c>
+      <c r="D211" t="s">
+        <v>3</v>
+      </c>
+      <c r="E211" t="s">
+        <v>14</v>
+      </c>
+      <c r="F211" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A212" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A211" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B211">
-        <v>0</v>
-      </c>
-      <c r="C211" t="s">
-        <v>15</v>
-      </c>
-      <c r="D211" t="s">
-        <v>3</v>
-      </c>
-      <c r="E211" t="s">
-        <v>14</v>
-      </c>
-      <c r="F211" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A212" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="B212">
         <v>0</v>
       </c>
@@ -4016,12 +3989,12 @@
         <v>14</v>
       </c>
       <c r="F212" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B213">
         <v>0</v>
@@ -4036,12 +4009,12 @@
         <v>14</v>
       </c>
       <c r="F213" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B214">
         <v>0</v>
@@ -4056,12 +4029,12 @@
         <v>14</v>
       </c>
       <c r="F214" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B215">
         <v>0</v>
@@ -4076,12 +4049,12 @@
         <v>14</v>
       </c>
       <c r="F215" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B216">
         <v>0</v>
@@ -4096,12 +4069,12 @@
         <v>14</v>
       </c>
       <c r="F216" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B217">
         <v>0</v>
@@ -4116,12 +4089,12 @@
         <v>14</v>
       </c>
       <c r="F217" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B218">
         <v>0</v>
@@ -4136,26 +4109,26 @@
         <v>14</v>
       </c>
       <c r="F218" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>1</v>
       </c>
       <c r="B221" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>2</v>
       </c>
@@ -4163,7 +4136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>4</v>
       </c>
@@ -4171,15 +4144,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>5</v>
       </c>
       <c r="B224" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>6</v>
       </c>
@@ -4187,15 +4160,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>8</v>
       </c>
       <c r="B226" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>9</v>
       </c>
@@ -4206,7 +4179,7 @@
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>10</v>
       </c>
@@ -4231,7 +4204,7 @@
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" t="str">
         <f>B220</f>
         <v>market for battery capacity (NCx scenario)</v>
@@ -4249,7 +4222,7 @@
         <v>13</v>
       </c>
       <c r="F229" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
@@ -4257,7 +4230,7 @@
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
     </row>
-    <row r="230" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
         <v>16</v>
       </c>
@@ -4274,12 +4247,12 @@
         <v>14</v>
       </c>
       <c r="F230" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B231">
         <v>0</v>
@@ -4294,12 +4267,12 @@
         <v>14</v>
       </c>
       <c r="F231" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B232">
         <v>0</v>
@@ -4314,33 +4287,33 @@
         <v>14</v>
       </c>
       <c r="F232" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233" t="s">
+        <v>15</v>
+      </c>
+      <c r="D233" t="s">
+        <v>3</v>
+      </c>
+      <c r="E233" t="s">
+        <v>14</v>
+      </c>
+      <c r="F233" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A234" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B233">
-        <v>0</v>
-      </c>
-      <c r="C233" t="s">
-        <v>15</v>
-      </c>
-      <c r="D233" t="s">
-        <v>3</v>
-      </c>
-      <c r="E233" t="s">
-        <v>14</v>
-      </c>
-      <c r="F233" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A234" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="B234">
         <v>0</v>
       </c>
@@ -4354,33 +4327,33 @@
         <v>14</v>
       </c>
       <c r="F234" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A235" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
+      <c r="C235" t="s">
+        <v>15</v>
+      </c>
+      <c r="D235" t="s">
+        <v>3</v>
+      </c>
+      <c r="E235" t="s">
+        <v>14</v>
+      </c>
+      <c r="F235" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A236" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="235" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A235" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B235">
-        <v>0</v>
-      </c>
-      <c r="C235" t="s">
-        <v>15</v>
-      </c>
-      <c r="D235" t="s">
-        <v>3</v>
-      </c>
-      <c r="E235" t="s">
-        <v>14</v>
-      </c>
-      <c r="F235" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A236" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="B236">
         <v>0</v>
       </c>
@@ -4394,12 +4367,12 @@
         <v>14</v>
       </c>
       <c r="F236" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B237">
         <v>0</v>
@@ -4414,12 +4387,12 @@
         <v>14</v>
       </c>
       <c r="F237" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B238">
         <v>0</v>
@@ -4434,12 +4407,12 @@
         <v>14</v>
       </c>
       <c r="F238" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B239">
         <v>0</v>
@@ -4454,12 +4427,12 @@
         <v>14</v>
       </c>
       <c r="F239" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B240">
         <v>0</v>
@@ -4474,12 +4447,12 @@
         <v>14</v>
       </c>
       <c r="F240" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B241">
         <v>0</v>
@@ -4494,12 +4467,12 @@
         <v>14</v>
       </c>
       <c r="F241" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B242">
         <v>0</v>
@@ -4514,26 +4487,26 @@
         <v>14</v>
       </c>
       <c r="F242" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>1</v>
       </c>
       <c r="B245" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>2</v>
       </c>
@@ -4541,7 +4514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>4</v>
       </c>
@@ -4549,15 +4522,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>5</v>
       </c>
       <c r="B248" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>6</v>
       </c>
@@ -4565,15 +4538,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>8</v>
       </c>
       <c r="B250" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>9</v>
       </c>
@@ -4584,7 +4557,7 @@
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>10</v>
       </c>
@@ -4609,7 +4582,7 @@
       <c r="J252" s="1"/>
       <c r="K252" s="1"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" t="str">
         <f>B244</f>
         <v>market for battery capacity (PLiB scenario)</v>
@@ -4627,7 +4600,7 @@
         <v>13</v>
       </c>
       <c r="F253" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
@@ -4635,7 +4608,7 @@
       <c r="J253" s="1"/>
       <c r="K253" s="1"/>
     </row>
-    <row r="254" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
         <v>16</v>
       </c>
@@ -4652,12 +4625,12 @@
         <v>14</v>
       </c>
       <c r="F254" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="255" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B255">
         <v>0</v>
@@ -4672,12 +4645,12 @@
         <v>14</v>
       </c>
       <c r="F255" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="256" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B256">
         <v>0</v>
@@ -4692,33 +4665,33 @@
         <v>14</v>
       </c>
       <c r="F256" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+      <c r="C257" t="s">
+        <v>15</v>
+      </c>
+      <c r="D257" t="s">
+        <v>3</v>
+      </c>
+      <c r="E257" t="s">
+        <v>14</v>
+      </c>
+      <c r="F257" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A258" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B257">
-        <v>0</v>
-      </c>
-      <c r="C257" t="s">
-        <v>15</v>
-      </c>
-      <c r="D257" t="s">
-        <v>3</v>
-      </c>
-      <c r="E257" t="s">
-        <v>14</v>
-      </c>
-      <c r="F257" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A258" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="B258">
         <v>0</v>
       </c>
@@ -4732,33 +4705,33 @@
         <v>14</v>
       </c>
       <c r="F258" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A259" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B259">
+        <v>0</v>
+      </c>
+      <c r="C259" t="s">
+        <v>15</v>
+      </c>
+      <c r="D259" t="s">
+        <v>3</v>
+      </c>
+      <c r="E259" t="s">
+        <v>14</v>
+      </c>
+      <c r="F259" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A260" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A259" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B259">
-        <v>0</v>
-      </c>
-      <c r="C259" t="s">
-        <v>15</v>
-      </c>
-      <c r="D259" t="s">
-        <v>3</v>
-      </c>
-      <c r="E259" t="s">
-        <v>14</v>
-      </c>
-      <c r="F259" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A260" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="B260">
         <v>0</v>
       </c>
@@ -4772,12 +4745,12 @@
         <v>14</v>
       </c>
       <c r="F260" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B261">
         <v>0</v>
@@ -4792,12 +4765,12 @@
         <v>14</v>
       </c>
       <c r="F261" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B262">
         <v>0</v>
@@ -4812,12 +4785,12 @@
         <v>14</v>
       </c>
       <c r="F262" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B263">
         <v>0</v>
@@ -4832,12 +4805,12 @@
         <v>14</v>
       </c>
       <c r="F263" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B264">
         <v>0</v>
@@ -4852,12 +4825,12 @@
         <v>14</v>
       </c>
       <c r="F264" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B265">
         <v>0</v>
@@ -4872,12 +4845,12 @@
         <v>14</v>
       </c>
       <c r="F265" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B266">
         <v>0</v>
@@ -4892,10 +4865,11 @@
         <v>14</v>
       </c>
       <c r="F266" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N266" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4903,36 +4877,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E327F433-64CA-4C75-A0BC-FFEEC2922B0D}">
-  <dimension ref="A1:N203"/>
+  <dimension ref="A1:N204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="A173" sqref="A173"/>
+    <sheetView topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="A165" sqref="A165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="69.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="69.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4940,7 +4914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4948,15 +4922,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -4965,22 +4939,22 @@
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B7">
         <f>1-0.27</f>
         <v>0.73</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -5000,22 +4974,22 @@
         <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="str">
         <f>B1</f>
         <v>market for battery capacity, Li-ion, LFP, stationary</v>
@@ -5035,12 +5009,12 @@
       </c>
       <c r="F10" t="str">
         <f>B5</f>
-        <v>battery capacity, Li-ion, LFP</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>electricity, low voltage</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="7">
         <f>1/(0.16*(1-27%))</f>
@@ -5056,7 +5030,7 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -5074,9 +5048,9 @@
         <v>9.7847358121330714</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B12" s="7">
         <f>-1*B11</f>
@@ -5092,7 +5066,7 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -5115,23 +5089,23 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -5139,7 +5113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -5147,15 +5121,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -5163,22 +5137,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B20">
         <f>1-0.27</f>
         <v>0.73</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -5198,22 +5172,22 @@
         <v>5</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="str">
         <f>B14</f>
         <v>market for battery capacity, Li-ion, NMC111, stationary</v>
@@ -5233,12 +5207,12 @@
       </c>
       <c r="F23" t="str">
         <f>B18</f>
-        <v>battery capacity, Li-ion, NMC111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>electricity, low voltage</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="3">
         <f>1/(0.18*73%)</f>
@@ -5254,7 +5228,7 @@
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G24">
         <v>5</v>
@@ -5272,9 +5246,9 @@
         <v>9.7847358121330714</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B25" s="3">
         <f>-1*B24</f>
@@ -5290,7 +5264,7 @@
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G25">
         <v>5</v>
@@ -5313,23 +5287,23 @@
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -5337,7 +5311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -5345,15 +5319,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -5361,22 +5335,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B33">
         <f>1-0.27</f>
         <v>0.73</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
@@ -5396,22 +5370,22 @@
         <v>5</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="str">
         <f>B27</f>
         <v>market for battery capacity, Li-ion, NMC523, stationary</v>
@@ -5431,12 +5405,12 @@
       </c>
       <c r="F36" t="str">
         <f>B31</f>
-        <v>battery capacity, Li-ion, NMC523</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+        <v>electricity, low voltage</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B37" s="3">
         <f>1/(0.2*73%)</f>
@@ -5452,7 +5426,7 @@
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="G37">
         <v>5</v>
@@ -5470,9 +5444,9 @@
         <v>8.058017727639001</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B38" s="3">
         <f>-1*B37</f>
@@ -5488,7 +5462,7 @@
         <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G38">
         <v>5</v>
@@ -5511,23 +5485,23 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -5535,7 +5509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -5543,16 +5517,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -5561,22 +5535,22 @@
       </c>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B46">
         <f>1-0.27</f>
         <v>0.73</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>10</v>
       </c>
@@ -5596,22 +5570,22 @@
         <v>5</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="str">
         <f>B40</f>
         <v>market for battery capacity, Li-ion, NMC622, stationary</v>
@@ -5631,12 +5605,12 @@
       </c>
       <c r="F49" t="str">
         <f>B44</f>
-        <v>battery capacity, Li-ion, NMC622</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+        <v>electricity, low voltage</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B50" s="3">
         <f>1/(0.24*73%)</f>
@@ -5652,7 +5626,7 @@
         <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G50">
         <v>5</v>
@@ -5670,9 +5644,9 @@
         <v>6.8493150684931514</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B51" s="3">
         <f>-1*B50</f>
@@ -5688,7 +5662,7 @@
         <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -5711,23 +5685,23 @@
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -5735,7 +5709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -5743,15 +5717,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -5760,12 +5734,12 @@
       </c>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>9</v>
       </c>
@@ -5774,7 +5748,7 @@
         <v>0.1988</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
@@ -5794,22 +5768,22 @@
         <v>5</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="str">
         <f>B53</f>
         <v>market for battery capacity, Li-ion, NMC811, stationary</v>
@@ -5829,12 +5803,12 @@
       </c>
       <c r="F62" t="str">
         <f>B57</f>
-        <v>battery capacity, Li-ion, NMC811</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+        <v>electricity, low voltage</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B63" s="3">
         <f>1/(0.28*71%)</f>
@@ -5850,7 +5824,7 @@
         <v>14</v>
       </c>
       <c r="F63" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G63">
         <v>5</v>
@@ -5868,9 +5842,9 @@
         <v>5.868544600938967</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B64" s="3">
         <f>-1*B63</f>
@@ -5886,7 +5860,7 @@
         <v>14</v>
       </c>
       <c r="F64" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G64">
         <v>5</v>
@@ -5909,23 +5883,23 @@
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
     </row>
-    <row r="66" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -5933,7 +5907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -5941,15 +5915,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -5958,21 +5932,21 @@
       </c>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B72">
         <f>1-0.29</f>
         <v>0.71</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>10</v>
       </c>
@@ -5992,22 +5966,22 @@
         <v>5</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="str">
         <f>B66</f>
         <v>market for battery capacity, Li-ion, NMC955, stationary</v>
@@ -6027,12 +6001,12 @@
       </c>
       <c r="F75" t="str">
         <f>B70</f>
-        <v>battery capacity, Li-ion, NMC955</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+        <v>electricity, low voltage</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B76" s="3">
         <f>1/(0.34*71%)</f>
@@ -6048,7 +6022,7 @@
         <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G76">
         <v>5</v>
@@ -6066,9 +6040,9 @@
         <v>4.694835680751174</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B77" s="3">
         <f>-1*B76</f>
@@ -6084,7 +6058,7 @@
         <v>14</v>
       </c>
       <c r="F77" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G77">
         <v>5</v>
@@ -6107,23 +6081,23 @@
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
     </row>
-    <row r="80" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>1</v>
       </c>
       <c r="B81" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>2</v>
       </c>
@@ -6131,7 +6105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -6139,16 +6113,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -6156,20 +6130,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>10</v>
       </c>
@@ -6189,22 +6163,22 @@
         <v>5</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="str">
         <f>B80</f>
         <v>market for battery capacity, redox-flow, Vanadium, stationary</v>
@@ -6224,12 +6198,12 @@
       </c>
       <c r="F89" t="str">
         <f>B84</f>
-        <v>battery capacity, redox-flow, Vanadium</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+        <v>electricity, low voltage</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B90" s="3">
         <f>1/(0.0194)</f>
@@ -6245,7 +6219,7 @@
         <v>14</v>
       </c>
       <c r="F90" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="G90">
         <v>5</v>
@@ -6263,9 +6237,9 @@
         <v>16.666666666666668</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B91" s="3">
         <f>-1*B90</f>
@@ -6281,7 +6255,7 @@
         <v>14</v>
       </c>
       <c r="F91" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="G91">
         <v>5</v>
@@ -6302,35 +6276,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B92" s="3"/>
       <c r="H92" s="7"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B93" s="3"/>
       <c r="H93" s="7"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
     </row>
-    <row r="94" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>2</v>
       </c>
@@ -6338,7 +6312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -6346,7 +6320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -6355,7 +6329,7 @@
       </c>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -6363,20 +6337,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>10</v>
       </c>
@@ -6396,22 +6370,22 @@
         <v>5</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="str">
         <f>B94</f>
         <v>market for battery capacity, lead acid, rechargeable, stationary</v>
@@ -6431,12 +6405,12 @@
       </c>
       <c r="F103" t="str">
         <f>B98</f>
-        <v>battery capacity, lead acid</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+        <v>electricity, low voltage</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B104" s="3">
         <f>1/0.03</f>
@@ -6452,7 +6426,7 @@
         <v>14</v>
       </c>
       <c r="F104" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="G104">
         <v>5</v>
@@ -6470,9 +6444,9 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B105" s="3">
         <f>-1*B104</f>
@@ -6488,7 +6462,7 @@
         <v>14</v>
       </c>
       <c r="F105" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="G105">
         <v>5</v>
@@ -6509,29 +6483,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B106" s="3"/>
       <c r="H106" s="7"/>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
     </row>
-    <row r="108" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1</v>
       </c>
       <c r="B109" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>2</v>
       </c>
@@ -6539,7 +6513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>4</v>
       </c>
@@ -6547,16 +6521,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="E112" s="3"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>6</v>
       </c>
@@ -6564,21 +6538,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B114">
         <f>1-0.25</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>10</v>
       </c>
@@ -6598,22 +6572,22 @@
         <v>5</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="str">
         <f>B108</f>
         <v>market for battery capacity, Sodium-ion, SiB, stationary</v>
@@ -6633,12 +6607,12 @@
       </c>
       <c r="F117" t="str">
         <f>B112</f>
-        <v>battery capacity, Sodium-ion, SiB</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+        <v>electricity, low voltage</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B118" s="3">
         <f>1/(0.16*75%)</f>
@@ -6654,7 +6628,7 @@
         <v>14</v>
       </c>
       <c r="F118" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G118">
         <v>5</v>
@@ -6672,9 +6646,9 @@
         <v>8.3333333333333339</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B119" s="3">
         <f>-1*B118</f>
@@ -6690,7 +6664,7 @@
         <v>14</v>
       </c>
       <c r="F119" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G119">
         <v>5</v>
@@ -6713,23 +6687,23 @@
       <c r="M119" s="3"/>
       <c r="N119" s="3"/>
     </row>
-    <row r="121" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>1</v>
       </c>
       <c r="B122" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>2</v>
       </c>
@@ -6737,7 +6711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>4</v>
       </c>
@@ -6745,15 +6719,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>6</v>
       </c>
@@ -6761,15 +6735,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>8</v>
       </c>
       <c r="B127" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>9</v>
       </c>
@@ -6780,7 +6754,7 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>10</v>
       </c>
@@ -6800,22 +6774,22 @@
         <v>5</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="str">
         <f>B121</f>
         <v>market for battery capacity, Sodium-Nickel-Chloride, Na-NiCl, stationary</v>
@@ -6835,12 +6809,12 @@
       </c>
       <c r="F130" t="str">
         <f>B125</f>
-        <v>battery capacity, Na-NiCl</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+        <v>electricity, low voltage</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B131" s="3">
         <f>1/0.116</f>
@@ -6856,7 +6830,7 @@
         <v>14</v>
       </c>
       <c r="F131" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G131">
         <v>5</v>
@@ -6874,9 +6848,9 @@
         <v>10.775862068965516</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B132" s="3">
         <f>-1*B131</f>
@@ -6892,7 +6866,7 @@
         <v>14</v>
       </c>
       <c r="F132" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G132">
         <v>5</v>
@@ -6913,29 +6887,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B133" s="3"/>
       <c r="H133" s="7"/>
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
     </row>
-    <row r="135" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>1</v>
       </c>
       <c r="B136" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>2</v>
       </c>
@@ -6943,7 +6917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>4</v>
       </c>
@@ -6951,15 +6925,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>5</v>
       </c>
       <c r="B139" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>6</v>
       </c>
@@ -6967,12 +6941,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:11" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>8</v>
       </c>
       <c r="B141" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C141"/>
       <c r="D141"/>
@@ -6984,7 +6958,7 @@
       <c r="J141"/>
       <c r="K141"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>9</v>
       </c>
@@ -6995,7 +6969,7 @@
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>10</v>
       </c>
@@ -7020,7 +6994,7 @@
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" t="str">
         <f>B135</f>
         <v>market for battery capacity, stationary (CONT scenario)</v>
@@ -7037,8 +7011,9 @@
       <c r="E144" t="s">
         <v>13</v>
       </c>
-      <c r="F144" t="s">
-        <v>35</v>
+      <c r="F144" t="str">
+        <f>B139</f>
+        <v>electricity, low voltage</v>
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
@@ -7046,9 +7021,9 @@
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
     </row>
-    <row r="145" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -7063,12 +7038,12 @@
         <v>14</v>
       </c>
       <c r="F145" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -7083,12 +7058,12 @@
         <v>14</v>
       </c>
       <c r="F146" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -7103,12 +7078,12 @@
         <v>14</v>
       </c>
       <c r="F147" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -7123,12 +7098,12 @@
         <v>14</v>
       </c>
       <c r="F148" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -7143,12 +7118,12 @@
         <v>14</v>
       </c>
       <c r="F149" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -7163,12 +7138,12 @@
         <v>14</v>
       </c>
       <c r="F150" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -7183,12 +7158,12 @@
         <v>14</v>
       </c>
       <c r="F151" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -7203,12 +7178,12 @@
         <v>14</v>
       </c>
       <c r="F152" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B153" s="6">
         <v>0</v>
@@ -7231,9 +7206,9 @@
       <c r="J153" s="6"/>
       <c r="K153" s="6"/>
     </row>
-    <row r="154" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -7248,120 +7223,114 @@
         <v>14</v>
       </c>
       <c r="F154" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>1</v>
-      </c>
-      <c r="B157" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A155" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B155">
+        <v>0.33</v>
+      </c>
+      <c r="C155" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" t="s">
+        <v>3</v>
+      </c>
+      <c r="E155" t="s">
+        <v>14</v>
+      </c>
+      <c r="F155" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
+        <v>1</v>
+      </c>
+      <c r="B158" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
         <v>2</v>
       </c>
-      <c r="B158" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="B159" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
         <v>4</v>
       </c>
-      <c r="B159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>5</v>
-      </c>
-      <c r="B160" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
         <v>6</v>
       </c>
-      <c r="B161" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="B162" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
         <v>8</v>
       </c>
-      <c r="B162" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
+      <c r="B163" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
-      <c r="G163" s="1"/>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B165" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="C165" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="D165" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E164" s="1" t="s">
+      <c r="E165" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F164" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G164" s="1"/>
-      <c r="H164" s="1"/>
-      <c r="I164" s="1"/>
-      <c r="J164" s="1"/>
-      <c r="K164" s="1"/>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" t="str">
-        <f>B156</f>
-        <v>market for battery capacity, stationary (TC scenario)</v>
-      </c>
-      <c r="B165">
-        <v>1</v>
-      </c>
-      <c r="C165" t="s">
-        <v>15</v>
-      </c>
-      <c r="D165" t="s">
-        <v>3</v>
-      </c>
-      <c r="E165" t="s">
-        <v>13</v>
-      </c>
-      <c r="F165" t="s">
-        <v>35</v>
+      <c r="F165" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
@@ -7369,12 +7338,13 @@
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
     </row>
-    <row r="166" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A166" s="6" t="s">
-        <v>97</v>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A166" t="str">
+        <f>B157</f>
+        <v>market for battery capacity, stationary (TC scenario)</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166" t="s">
         <v>15</v>
@@ -7383,15 +7353,21 @@
         <v>3</v>
       </c>
       <c r="E166" t="s">
-        <v>14</v>
-      </c>
-      <c r="F166" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="F166" t="str">
+        <f>B161</f>
+        <v>electricity, low voltage</v>
+      </c>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+    </row>
+    <row r="167" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -7406,12 +7382,12 @@
         <v>14</v>
       </c>
       <c r="F167" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -7426,174 +7402,205 @@
         <v>14</v>
       </c>
       <c r="F168" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169" t="s">
+        <v>15</v>
+      </c>
+      <c r="D169" t="s">
+        <v>3</v>
+      </c>
+      <c r="E169" t="s">
+        <v>14</v>
+      </c>
+      <c r="F169" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A170" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170" t="s">
+        <v>15</v>
+      </c>
+      <c r="D170" t="s">
+        <v>3</v>
+      </c>
+      <c r="E170" t="s">
+        <v>14</v>
+      </c>
+      <c r="F170" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A171" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171" t="s">
+        <v>15</v>
+      </c>
+      <c r="D171" t="s">
+        <v>3</v>
+      </c>
+      <c r="E171" t="s">
+        <v>14</v>
+      </c>
+      <c r="F171" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A172" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172" t="s">
+        <v>15</v>
+      </c>
+      <c r="D172" t="s">
+        <v>3</v>
+      </c>
+      <c r="E172" t="s">
+        <v>14</v>
+      </c>
+      <c r="F172" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A173" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173" t="s">
+        <v>15</v>
+      </c>
+      <c r="D173" t="s">
+        <v>3</v>
+      </c>
+      <c r="E173" t="s">
+        <v>14</v>
+      </c>
+      <c r="F173" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A174" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174" t="s">
+        <v>15</v>
+      </c>
+      <c r="D174" t="s">
+        <v>3</v>
+      </c>
+      <c r="E174" t="s">
+        <v>14</v>
+      </c>
+      <c r="F174" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A175" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B175" s="6">
+        <v>0</v>
+      </c>
+      <c r="C175" t="s">
+        <v>15</v>
+      </c>
+      <c r="D175" t="s">
+        <v>3</v>
+      </c>
+      <c r="E175" t="s">
+        <v>14</v>
+      </c>
+      <c r="F175" t="s">
+        <v>109</v>
+      </c>
+      <c r="G175" s="6"/>
+      <c r="H175" s="6"/>
+    </row>
+    <row r="176" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A176" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B169">
-        <v>0</v>
-      </c>
-      <c r="C169" t="s">
-        <v>15</v>
-      </c>
-      <c r="D169" t="s">
-        <v>3</v>
-      </c>
-      <c r="E169" t="s">
-        <v>14</v>
-      </c>
-      <c r="F169" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A170" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B170">
-        <v>0</v>
-      </c>
-      <c r="C170" t="s">
-        <v>15</v>
-      </c>
-      <c r="D170" t="s">
-        <v>3</v>
-      </c>
-      <c r="E170" t="s">
-        <v>14</v>
-      </c>
-      <c r="F170" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A171" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B171">
-        <v>0</v>
-      </c>
-      <c r="C171" t="s">
-        <v>15</v>
-      </c>
-      <c r="D171" t="s">
-        <v>3</v>
-      </c>
-      <c r="E171" t="s">
-        <v>14</v>
-      </c>
-      <c r="F171" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A172" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B172">
-        <v>0</v>
-      </c>
-      <c r="C172" t="s">
-        <v>15</v>
-      </c>
-      <c r="D172" t="s">
-        <v>3</v>
-      </c>
-      <c r="E172" t="s">
-        <v>14</v>
-      </c>
-      <c r="F172" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A173" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B173">
-        <v>0</v>
-      </c>
-      <c r="C173" t="s">
-        <v>15</v>
-      </c>
-      <c r="D173" t="s">
-        <v>3</v>
-      </c>
-      <c r="E173" t="s">
-        <v>14</v>
-      </c>
-      <c r="F173" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A174" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B174" s="6">
-        <v>0</v>
-      </c>
-      <c r="C174" t="s">
-        <v>15</v>
-      </c>
-      <c r="D174" t="s">
-        <v>3</v>
-      </c>
-      <c r="E174" t="s">
-        <v>14</v>
-      </c>
-      <c r="F174" t="s">
-        <v>109</v>
-      </c>
-      <c r="G174" s="6"/>
-      <c r="H174" s="6"/>
-    </row>
-    <row r="175" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A175" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B175">
-        <v>0</v>
-      </c>
-      <c r="C175" t="s">
-        <v>15</v>
-      </c>
-      <c r="D175" t="s">
-        <v>3</v>
-      </c>
-      <c r="E175" t="s">
-        <v>14</v>
-      </c>
-      <c r="F175" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A177" s="4"/>
-    </row>
-    <row r="178" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176" t="s">
+        <v>15</v>
+      </c>
+      <c r="D176" t="s">
+        <v>3</v>
+      </c>
+      <c r="E176" t="s">
+        <v>14</v>
+      </c>
+      <c r="F176" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A177" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B177">
+        <v>0.33</v>
+      </c>
+      <c r="C177" t="s">
+        <v>15</v>
+      </c>
+      <c r="D177" t="s">
+        <v>3</v>
+      </c>
+      <c r="E177" t="s">
+        <v>14</v>
+      </c>
+      <c r="F177" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A179" s="5"/>
-    </row>
-    <row r="181" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A181" s="2"/>
-      <c r="B181" s="2"/>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
-      <c r="E188" s="1"/>
-      <c r="F188" s="1"/>
-      <c r="G188" s="1"/>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A179" s="4"/>
+    </row>
+    <row r="180" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A180" s="5"/>
+    </row>
+    <row r="182" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A182" s="2"/>
+      <c r="B182" s="2"/>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -7601,60 +7608,70 @@
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
-      <c r="H189" s="1"/>
-      <c r="I189" s="1"/>
-      <c r="J189" s="1"/>
-      <c r="K189" s="1"/>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
     </row>
-    <row r="191" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A191" s="6"/>
-    </row>
-    <row r="192" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G191" s="1"/>
+      <c r="H191" s="1"/>
+      <c r="I191" s="1"/>
+      <c r="J191" s="1"/>
+      <c r="K191" s="1"/>
+    </row>
+    <row r="192" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="6"/>
     </row>
-    <row r="193" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="6"/>
     </row>
-    <row r="194" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="6"/>
     </row>
-    <row r="195" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="6"/>
     </row>
-    <row r="196" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="6"/>
     </row>
-    <row r="197" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="6"/>
     </row>
-    <row r="198" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="6"/>
     </row>
-    <row r="199" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="6"/>
-      <c r="B199" s="6"/>
-      <c r="G199" s="6"/>
-    </row>
-    <row r="200" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="6"/>
-    </row>
-    <row r="201" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A201" s="4"/>
-    </row>
-    <row r="202" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B200" s="6"/>
+      <c r="G200" s="6"/>
+    </row>
+    <row r="201" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A201" s="6"/>
+    </row>
+    <row r="202" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A203" s="5"/>
+    <row r="203" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A203" s="4"/>
+    </row>
+    <row r="204" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A204" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N204" xr:uid="{E327F433-64CA-4C75-A0BC-FFEEC2922B0D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-battery-capacity.xlsx
+++ b/premise/data/additional_inventories/lci-battery-capacity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CBD25A-E903-2945-8CE6-B8E5BCF92E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FF2860-B80F-ED45-BBD1-C9D83E9F3527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Battery - NMC" sheetId="1" r:id="rId1"/>
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="D176" sqref="D176"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4879,8 +4879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E327F433-64CA-4C75-A0BC-FFEEC2922B0D}">
   <dimension ref="A1:N204"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="A165" sqref="A165"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="J106" sqref="J106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6229,12 +6229,12 @@
         <v>51.546391752577321</v>
       </c>
       <c r="I90" s="3">
-        <f>1/(0.02)</f>
-        <v>50</v>
-      </c>
-      <c r="J90" s="3">
         <f>1/(0.06)</f>
         <v>16.666666666666668</v>
+      </c>
+      <c r="J90" s="3">
+        <f>1/(0.019)</f>
+        <v>52.631578947368425</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
@@ -6265,12 +6265,12 @@
         <v>-51.546391752577321</v>
       </c>
       <c r="I91" s="3">
-        <f>-1/(0.06)</f>
+        <f>-1*J90</f>
+        <v>-52.631578947368425</v>
+      </c>
+      <c r="J91" s="3">
+        <f>-1*I90</f>
         <v>-16.666666666666668</v>
-      </c>
-      <c r="J91" s="3">
-        <f>-1/(0.02)</f>
-        <v>-50</v>
       </c>
       <c r="K91" t="b">
         <v>1</v>
@@ -6436,12 +6436,12 @@
         <v>33.333333333333336</v>
       </c>
       <c r="I104" s="3">
+        <f>1/(0.032)</f>
+        <v>31.25</v>
+      </c>
+      <c r="J104" s="3">
         <f>1/(0.027)</f>
         <v>37.037037037037038</v>
-      </c>
-      <c r="J104" s="3">
-        <f>1/(0.032)</f>
-        <v>31.25</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
@@ -6472,12 +6472,12 @@
         <v>-33.333333333333336</v>
       </c>
       <c r="I105" s="3">
-        <f>-J104</f>
+        <f>-1*J104</f>
+        <v>-37.037037037037038</v>
+      </c>
+      <c r="J105" s="3">
+        <f>-1*I104</f>
         <v>-31.25</v>
-      </c>
-      <c r="J105" s="3">
-        <f>-I104</f>
-        <v>-37.037037037037038</v>
       </c>
       <c r="K105" t="b">
         <v>1</v>

--- a/premise/data/additional_inventories/lci-battery-capacity.xlsx
+++ b/premise/data/additional_inventories/lci-battery-capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FF2860-B80F-ED45-BBD1-C9D83E9F3527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E883C0AF-51F8-5E43-ABF0-9A5C7FFB13D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Battery - NMC'!$A$1:$N$266</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Battery - stationary'!$A$1:$N$204</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Battery - stationary'!$A$1:$N$203</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="115">
   <si>
     <t>Activity</t>
   </si>
@@ -373,6 +373,18 @@
   </si>
   <si>
     <t>market group for electricity, low voltage</t>
+  </si>
+  <si>
+    <t>electricity storage capacity</t>
+  </si>
+  <si>
+    <t>electricity supply, from stationary battery (CONT scenario)</t>
+  </si>
+  <si>
+    <t>This dataset provides a market average for 1 kWh of battery gross capacity (NOT net). It is based on shares provided by Schlichenmaier &amp; Naegler (2022) https://doi.org/10.1016/j.egyr.2022.11.025.</t>
+  </si>
+  <si>
+    <t>This dataset provides a kilowatt hour from a stationary battery system. Assumed lifetime : 2'500 cycles, or 2'500 kWh. Min: 1'500 cycles. Max: 5'000 cycles. Includes charging and discharging losses of 33%.</t>
   </si>
 </sst>
 </file>
@@ -758,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N266"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="F253" sqref="F253:F266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -813,7 +825,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -895,7 +907,7 @@
       </c>
       <c r="F12" t="str">
         <f>B7</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -1012,7 +1024,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -1093,7 +1105,7 @@
       </c>
       <c r="F25" t="str">
         <f>B20</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -1210,7 +1222,7 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -1291,7 +1303,7 @@
       </c>
       <c r="F38" t="str">
         <f>B33</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -1408,7 +1420,7 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E46" s="3"/>
     </row>
@@ -1491,7 +1503,7 @@
       </c>
       <c r="F51" t="str">
         <f>B46</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -1608,7 +1620,7 @@
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
@@ -1689,7 +1701,7 @@
       </c>
       <c r="F64" t="str">
         <f>B59</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
@@ -1806,7 +1818,7 @@
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
@@ -1887,7 +1899,7 @@
       </c>
       <c r="F77" t="str">
         <f>B72</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
@@ -2004,7 +2016,7 @@
         <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
@@ -2085,7 +2097,7 @@
       </c>
       <c r="F90" t="str">
         <f>B85</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
@@ -2202,7 +2214,7 @@
         <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E98" s="3"/>
     </row>
@@ -2283,7 +2295,7 @@
       </c>
       <c r="F103" t="str">
         <f>B98</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
@@ -2400,7 +2412,7 @@
         <v>5</v>
       </c>
       <c r="B111" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
@@ -2481,7 +2493,7 @@
       </c>
       <c r="F116" t="str">
         <f>B111</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
@@ -2598,7 +2610,7 @@
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
@@ -2679,7 +2691,7 @@
       </c>
       <c r="F129" t="str">
         <f>B124</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
@@ -2796,7 +2808,7 @@
         <v>5</v>
       </c>
       <c r="B137" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
@@ -2876,7 +2888,7 @@
       </c>
       <c r="F142" t="str">
         <f>B137</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
@@ -2993,7 +3005,7 @@
         <v>5</v>
       </c>
       <c r="B150" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E150" s="3"/>
     </row>
@@ -3074,7 +3086,7 @@
       </c>
       <c r="F155" t="str">
         <f>B150</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
@@ -3191,7 +3203,7 @@
         <v>5</v>
       </c>
       <c r="B163" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
@@ -3276,7 +3288,7 @@
       </c>
       <c r="F168" t="str">
         <f>B163</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
@@ -3393,7 +3405,7 @@
         <v>5</v>
       </c>
       <c r="B176" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
@@ -3466,7 +3478,7 @@
         <v>13</v>
       </c>
       <c r="F181" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
@@ -3491,7 +3503,7 @@
         <v>14</v>
       </c>
       <c r="F182" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="183" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3511,7 +3523,7 @@
         <v>14</v>
       </c>
       <c r="F183" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3531,7 +3543,7 @@
         <v>14</v>
       </c>
       <c r="F184" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="185" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3551,7 +3563,7 @@
         <v>14</v>
       </c>
       <c r="F185" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3571,7 +3583,7 @@
         <v>14</v>
       </c>
       <c r="F186" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="187" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3591,7 +3603,7 @@
         <v>14</v>
       </c>
       <c r="F187" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="188" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3611,7 +3623,7 @@
         <v>14</v>
       </c>
       <c r="F188" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="189" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3631,7 +3643,7 @@
         <v>14</v>
       </c>
       <c r="F189" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="190" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3651,7 +3663,7 @@
         <v>14</v>
       </c>
       <c r="F190" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="191" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3671,7 +3683,7 @@
         <v>14</v>
       </c>
       <c r="F191" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="192" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3691,7 +3703,7 @@
         <v>14</v>
       </c>
       <c r="F192" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="193" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3711,7 +3723,7 @@
         <v>14</v>
       </c>
       <c r="F193" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="194" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3731,7 +3743,7 @@
         <v>14</v>
       </c>
       <c r="F194" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="196" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3771,7 +3783,7 @@
         <v>5</v>
       </c>
       <c r="B200" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
@@ -3844,7 +3856,7 @@
         <v>13</v>
       </c>
       <c r="F205" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
@@ -3869,7 +3881,7 @@
         <v>14</v>
       </c>
       <c r="F206" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="207" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3889,7 +3901,7 @@
         <v>14</v>
       </c>
       <c r="F207" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="208" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3909,7 +3921,7 @@
         <v>14</v>
       </c>
       <c r="F208" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3929,7 +3941,7 @@
         <v>14</v>
       </c>
       <c r="F209" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3949,7 +3961,7 @@
         <v>14</v>
       </c>
       <c r="F210" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3969,7 +3981,7 @@
         <v>14</v>
       </c>
       <c r="F211" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3989,7 +4001,7 @@
         <v>14</v>
       </c>
       <c r="F212" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4009,7 +4021,7 @@
         <v>14</v>
       </c>
       <c r="F213" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4029,7 +4041,7 @@
         <v>14</v>
       </c>
       <c r="F214" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4049,7 +4061,7 @@
         <v>14</v>
       </c>
       <c r="F215" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4069,7 +4081,7 @@
         <v>14</v>
       </c>
       <c r="F216" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4089,7 +4101,7 @@
         <v>14</v>
       </c>
       <c r="F217" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4109,7 +4121,7 @@
         <v>14</v>
       </c>
       <c r="F218" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4149,7 +4161,7 @@
         <v>5</v>
       </c>
       <c r="B224" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
@@ -4222,7 +4234,7 @@
         <v>13</v>
       </c>
       <c r="F229" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
@@ -4247,7 +4259,7 @@
         <v>14</v>
       </c>
       <c r="F230" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="231" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4267,7 +4279,7 @@
         <v>14</v>
       </c>
       <c r="F231" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="232" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4287,7 +4299,7 @@
         <v>14</v>
       </c>
       <c r="F232" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="233" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4307,7 +4319,7 @@
         <v>14</v>
       </c>
       <c r="F233" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="234" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4327,7 +4339,7 @@
         <v>14</v>
       </c>
       <c r="F234" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="235" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4347,7 +4359,7 @@
         <v>14</v>
       </c>
       <c r="F235" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="236" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4367,7 +4379,7 @@
         <v>14</v>
       </c>
       <c r="F236" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="237" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4387,7 +4399,7 @@
         <v>14</v>
       </c>
       <c r="F237" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="238" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4407,7 +4419,7 @@
         <v>14</v>
       </c>
       <c r="F238" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="239" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4427,7 +4439,7 @@
         <v>14</v>
       </c>
       <c r="F239" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="240" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4447,7 +4459,7 @@
         <v>14</v>
       </c>
       <c r="F240" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="241" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4467,7 +4479,7 @@
         <v>14</v>
       </c>
       <c r="F241" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="242" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4487,7 +4499,7 @@
         <v>14</v>
       </c>
       <c r="F242" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="244" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4527,7 +4539,7 @@
         <v>5</v>
       </c>
       <c r="B248" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.2">
@@ -4600,7 +4612,7 @@
         <v>13</v>
       </c>
       <c r="F253" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
@@ -4625,7 +4637,7 @@
         <v>14</v>
       </c>
       <c r="F254" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="255" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4645,7 +4657,7 @@
         <v>14</v>
       </c>
       <c r="F255" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="256" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4665,7 +4677,7 @@
         <v>14</v>
       </c>
       <c r="F256" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4685,7 +4697,7 @@
         <v>14</v>
       </c>
       <c r="F257" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4705,7 +4717,7 @@
         <v>14</v>
       </c>
       <c r="F258" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4725,7 +4737,7 @@
         <v>14</v>
       </c>
       <c r="F259" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4745,7 +4757,7 @@
         <v>14</v>
       </c>
       <c r="F260" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4765,7 +4777,7 @@
         <v>14</v>
       </c>
       <c r="F261" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4785,7 +4797,7 @@
         <v>14</v>
       </c>
       <c r="F262" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4805,7 +4817,7 @@
         <v>14</v>
       </c>
       <c r="F263" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4825,7 +4837,7 @@
         <v>14</v>
       </c>
       <c r="F264" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4845,7 +4857,7 @@
         <v>14</v>
       </c>
       <c r="F265" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4865,7 +4877,7 @@
         <v>14</v>
       </c>
       <c r="F266" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -4877,10 +4889,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E327F433-64CA-4C75-A0BC-FFEEC2922B0D}">
-  <dimension ref="A1:N204"/>
+  <dimension ref="A1:N203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="J106" sqref="J106"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="J189" sqref="J189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4927,7 +4939,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -5009,7 +5021,7 @@
       </c>
       <c r="F10" t="str">
         <f>B5</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -5126,7 +5138,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -5207,7 +5219,7 @@
       </c>
       <c r="F23" t="str">
         <f>B18</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -5324,7 +5336,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -5405,7 +5417,7 @@
       </c>
       <c r="F36" t="str">
         <f>B31</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -5522,7 +5534,7 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E44" s="3"/>
     </row>
@@ -5605,7 +5617,7 @@
       </c>
       <c r="F49" t="str">
         <f>B44</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
@@ -5722,7 +5734,7 @@
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
@@ -5803,7 +5815,7 @@
       </c>
       <c r="F62" t="str">
         <f>B57</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
@@ -5920,7 +5932,7 @@
         <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
@@ -6001,7 +6013,7 @@
       </c>
       <c r="F75" t="str">
         <f>B70</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
@@ -6118,7 +6130,7 @@
         <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E84" s="3"/>
     </row>
@@ -6198,7 +6210,7 @@
       </c>
       <c r="F89" t="str">
         <f>B84</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
@@ -6325,7 +6337,7 @@
         <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E98" s="3"/>
     </row>
@@ -6405,7 +6417,7 @@
       </c>
       <c r="F103" t="str">
         <f>B98</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
@@ -6526,7 +6538,7 @@
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E112" s="3"/>
     </row>
@@ -6607,7 +6619,7 @@
       </c>
       <c r="F117" t="str">
         <f>B112</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
@@ -6724,7 +6736,7 @@
         <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
@@ -6809,7 +6821,7 @@
       </c>
       <c r="F130" t="str">
         <f>B125</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
@@ -6930,7 +6942,7 @@
         <v>5</v>
       </c>
       <c r="B139" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
@@ -7013,7 +7025,7 @@
       </c>
       <c r="F144" t="str">
         <f>B139</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
@@ -7038,7 +7050,7 @@
         <v>14</v>
       </c>
       <c r="F145" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -7058,7 +7070,7 @@
         <v>14</v>
       </c>
       <c r="F146" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -7078,7 +7090,7 @@
         <v>14</v>
       </c>
       <c r="F147" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -7098,7 +7110,7 @@
         <v>14</v>
       </c>
       <c r="F148" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -7118,7 +7130,7 @@
         <v>14</v>
       </c>
       <c r="F149" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -7138,7 +7150,7 @@
         <v>14</v>
       </c>
       <c r="F150" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -7158,7 +7170,7 @@
         <v>14</v>
       </c>
       <c r="F151" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -7178,7 +7190,7 @@
         <v>14</v>
       </c>
       <c r="F152" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -7198,7 +7210,7 @@
         <v>14</v>
       </c>
       <c r="F153" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G153" s="6"/>
       <c r="H153" s="6"/>
@@ -7223,114 +7235,121 @@
         <v>14</v>
       </c>
       <c r="F154" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A155" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B155">
-        <v>0.33</v>
-      </c>
-      <c r="C155" t="s">
-        <v>15</v>
-      </c>
-      <c r="D155" t="s">
-        <v>3</v>
-      </c>
-      <c r="E155" t="s">
-        <v>14</v>
-      </c>
-      <c r="F155" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A157" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B157" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>1</v>
+      </c>
+      <c r="B157" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B158" t="s">
-        <v>108</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>2</v>
-      </c>
-      <c r="B159" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>4</v>
-      </c>
-      <c r="B160">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B160" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B161" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B162" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>8</v>
-      </c>
-      <c r="B163" t="s">
-        <v>107</v>
-      </c>
+      <c r="A163" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>5</v>
+      <c r="A165" t="str">
+        <f>B156</f>
+        <v>market for battery capacity, stationary (TC scenario)</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165" t="s">
+        <v>15</v>
+      </c>
+      <c r="D165" t="s">
+        <v>3</v>
+      </c>
+      <c r="E165" t="s">
+        <v>13</v>
+      </c>
+      <c r="F165" t="str">
+        <f>B160</f>
+        <v>electricity storage capacity</v>
       </c>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
@@ -7338,13 +7357,12 @@
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A166" t="str">
-        <f>B157</f>
-        <v>market for battery capacity, stationary (TC scenario)</v>
+    <row r="166" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A166" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166" t="s">
         <v>15</v>
@@ -7353,21 +7371,15 @@
         <v>3</v>
       </c>
       <c r="E166" t="s">
-        <v>13</v>
-      </c>
-      <c r="F166" t="str">
-        <f>B161</f>
-        <v>electricity, low voltage</v>
-      </c>
-      <c r="G166" s="1"/>
-      <c r="H166" s="1"/>
-      <c r="I166" s="1"/>
-      <c r="J166" s="1"/>
-      <c r="K166" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="F166" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="167" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -7382,12 +7394,12 @@
         <v>14</v>
       </c>
       <c r="F167" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="168" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -7402,12 +7414,12 @@
         <v>14</v>
       </c>
       <c r="F168" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -7422,12 +7434,12 @@
         <v>14</v>
       </c>
       <c r="F169" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="170" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -7442,12 +7454,12 @@
         <v>14</v>
       </c>
       <c r="F170" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -7462,12 +7474,12 @@
         <v>14</v>
       </c>
       <c r="F171" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="172" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -7482,12 +7494,12 @@
         <v>14</v>
       </c>
       <c r="F172" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -7502,14 +7514,14 @@
         <v>14</v>
       </c>
       <c r="F173" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="174" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B174">
+        <v>94</v>
+      </c>
+      <c r="B174" s="6">
         <v>0</v>
       </c>
       <c r="C174" t="s">
@@ -7522,14 +7534,16 @@
         <v>14</v>
       </c>
       <c r="F174" t="s">
-        <v>109</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G174" s="6"/>
+      <c r="H174" s="6"/>
     </row>
     <row r="175" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B175" s="6">
+        <v>100</v>
+      </c>
+      <c r="B175">
         <v>0</v>
       </c>
       <c r="C175" t="s">
@@ -7542,63 +7556,217 @@
         <v>14</v>
       </c>
       <c r="F175" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A176" s="4"/>
+    </row>
+    <row r="177" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>2</v>
+      </c>
+      <c r="B179" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>4</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B181" t="s">
         <v>109</v>
       </c>
-      <c r="G175" s="6"/>
-      <c r="H175" s="6"/>
-    </row>
-    <row r="176" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A176" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B176">
-        <v>0</v>
-      </c>
-      <c r="C176" t="s">
-        <v>15</v>
-      </c>
-      <c r="D176" t="s">
-        <v>3</v>
-      </c>
-      <c r="E176" t="s">
-        <v>14</v>
-      </c>
-      <c r="F176" t="s">
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>6</v>
+      </c>
+      <c r="B182" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>8</v>
+      </c>
+      <c r="B183" t="s">
+        <v>107</v>
+      </c>
+      <c r="C183"/>
+      <c r="D183"/>
+      <c r="E183"/>
+      <c r="F183"/>
+      <c r="G183"/>
+      <c r="H183"/>
+      <c r="I183"/>
+      <c r="J183"/>
+      <c r="K183"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K185" s="1"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A186" t="str">
+        <f>B177</f>
+        <v>electricity supply, from stationary battery (CONT scenario)</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186" t="s">
+        <v>15</v>
+      </c>
+      <c r="D186" t="s">
+        <v>3</v>
+      </c>
+      <c r="E186" t="s">
+        <v>13</v>
+      </c>
+      <c r="F186" t="str">
+        <f>B181</f>
+        <v>electricity, low voltage</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="I186" s="1"/>
+      <c r="J186" s="1"/>
+      <c r="K186" s="1"/>
+    </row>
+    <row r="187" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A187" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B187">
+        <f>1/2500</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="C187" t="s">
+        <v>15</v>
+      </c>
+      <c r="D187" t="s">
+        <v>3</v>
+      </c>
+      <c r="E187" t="s">
+        <v>14</v>
+      </c>
+      <c r="F187" t="s">
+        <v>111</v>
+      </c>
+      <c r="G187">
+        <v>5</v>
+      </c>
+      <c r="H187">
+        <f>B187</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="I187">
+        <f>1/5000</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="J187">
+        <f>1/1500</f>
+        <v>6.6666666666666664E-4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A188" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B188">
+        <v>0.33</v>
+      </c>
+      <c r="C188" t="s">
+        <v>15</v>
+      </c>
+      <c r="D188" t="s">
+        <v>3</v>
+      </c>
+      <c r="E188" t="s">
+        <v>14</v>
+      </c>
+      <c r="F188" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A177" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B177">
+      <c r="G188">
+        <v>5</v>
+      </c>
+      <c r="H188">
+        <f>B188</f>
         <v>0.33</v>
       </c>
-      <c r="C177" t="s">
-        <v>15</v>
-      </c>
-      <c r="D177" t="s">
-        <v>3</v>
-      </c>
-      <c r="E177" t="s">
-        <v>14</v>
-      </c>
-      <c r="F177" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A178" s="4"/>
-    </row>
-    <row r="179" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A179" s="4"/>
-    </row>
-    <row r="180" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A180" s="5"/>
-    </row>
-    <row r="182" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A182" s="2"/>
-      <c r="B182" s="2"/>
+      <c r="I188">
+        <v>0.25</v>
+      </c>
+      <c r="J188">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
@@ -7608,26 +7776,20 @@
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
+      <c r="H189" s="1"/>
+      <c r="I189" s="1"/>
+      <c r="J189" s="1"/>
+      <c r="K189" s="1"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
-      <c r="E190" s="1"/>
-      <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G191" s="1"/>
-      <c r="H191" s="1"/>
-      <c r="I191" s="1"/>
-      <c r="J191" s="1"/>
-      <c r="K191" s="1"/>
+    <row r="191" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A191" s="6"/>
     </row>
     <row r="192" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="6"/>
@@ -7652,26 +7814,23 @@
     </row>
     <row r="199" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="6"/>
+      <c r="B199" s="6"/>
+      <c r="G199" s="6"/>
     </row>
     <row r="200" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="6"/>
-      <c r="B200" s="6"/>
-      <c r="G200" s="6"/>
     </row>
     <row r="201" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A201" s="6"/>
+      <c r="A201" s="4"/>
     </row>
     <row r="202" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="4"/>
     </row>
     <row r="203" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A203" s="4"/>
-    </row>
-    <row r="204" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A204" s="5"/>
+      <c r="A203" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N204" xr:uid="{E327F433-64CA-4C75-A0BC-FFEEC2922B0D}"/>
+  <autoFilter ref="A1:N203" xr:uid="{E327F433-64CA-4C75-A0BC-FFEEC2922B0D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
